--- a/V14_cna013_forSetubikanri_demo.xlsx
+++ b/V14_cna013_forSetubikanri_demo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2394FC-7AC2-4DAA-9DC9-BC2845AE3E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28D435F-2E5B-4D1A-99DA-DB658A1294EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31110" yWindow="735" windowWidth="21600" windowHeight="14745" tabRatio="740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -332,7 +332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -420,19 +420,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -452,71 +443,1277 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$151:$C$239</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/mm/dd\ hh:mm:ss</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45748.450856481482</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45748.63559027778</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45748.72446759259</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45748.9140625</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45749.724479166667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45749.91064814815</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45749.989062499997</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45750.730034722219</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45751.009212962963</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45751.120312500003</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45751.418229166666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45751.609895833331</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45752.124490740738</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45752.361400462964</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45754.459224537037</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45754.652997685182</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45755.11478009259</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45755.30159722222</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45755.38422453704</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45755.532835648148</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45755.719652777778</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45755.911296296297</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45756.082835648151</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45756.247453703705</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45756.421724537038</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45756.614085648151</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45756.73909722222</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45756.930787037039</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45757.222430555557</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45757.257835648146</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45757.467569444445</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45757.567557870374</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45757.750902777778</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45758.130057870374</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45758.295335648145</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45758.445347222223</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45758.637025462966</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45759.112002314818</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45759.325902777775</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45761.472430555557</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45761.666192129633</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45762.08284722222</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45762.269097222219</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45762.389803240738</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45762.581458333334</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45763.097442129627</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45763.283553240741</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45763.452291666668</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45763.64466435185</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45763.686342592591</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45763.875902777778</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45764.167581018519</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45764.726620370369</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45764.919664351852</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45765.100219907406</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45765.292187500003</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45765.471759259257</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45765.663483796299</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45765.751608796294</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45765.934942129628</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45766.115497685183</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45766.328703703701</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45768.462743055556</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45768.655787037038</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45769.168287037035</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45769.36142361111</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45769.466215277775</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45769.657175925924</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45769.734270833331</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45769.937037037038</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45770.163437499999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45770.376620370371</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45770.473854166667</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45770.664826388886</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45770.736354166664</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45770.925937499997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45771.21769675926</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45771.25371527778</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45771.44259259259</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45771.485046296293</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45771.673854166664</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45772.435659722221</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45772.62871527778</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45772.726631944446</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45772.916909722226</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45773.20857638889</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45773.245393518519</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45773.475243055553</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="mm/dd\ hh:mm:ss">
+                  <c:v>45783.499583333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$151:$F$239</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="1">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2200-4377-9745-5A1071563A66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1153957024"/>
+        <c:axId val="559739936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1153957024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="mm/dd" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559739936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="559739936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1153957024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>327421</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>597692</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>21431</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="吹き出し: 角を丸めた四角形 23">
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55CF11BE-A03A-4BEF-99DF-10446442F8BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401C1E98-5BCE-2143-05E7-6A2257EE1B11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5447109" y="28021359"/>
-          <a:ext cx="954880" cy="289322"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 86701"/>
-            <a:gd name="adj2" fmla="val 23561"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>操作ミス？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -811,8 +2008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BC4380-DC5D-427E-8733-7C45DA19404D}">
   <dimension ref="A1:AB586"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E238" sqref="E238"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F225" sqref="F225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -1092,7 +2289,7 @@
         <v>-0.78333333333284827</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="30">
+      <c r="F10" s="29">
         <v>3.7</v>
       </c>
       <c r="G10" s="20"/>
@@ -1150,7 +2347,7 @@
         <v>-0.56111111110658385</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="30">
+      <c r="F12" s="29">
         <v>4.0999999999999996</v>
       </c>
       <c r="G12" s="20"/>
@@ -1298,7 +2495,7 @@
         <v>5.502789351856336</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="30">
+      <c r="F17" s="29">
         <v>3.8</v>
       </c>
       <c r="G17" s="20"/>
@@ -1386,7 +2583,7 @@
         <v>6.1377546296353103</v>
       </c>
       <c r="E20" s="11"/>
-      <c r="F20" s="30">
+      <c r="F20" s="29">
         <v>4.4000000000000004</v>
       </c>
       <c r="G20" s="20"/>
@@ -1444,7 +2641,7 @@
         <v>7.5847685185217415</v>
       </c>
       <c r="E22" s="11"/>
-      <c r="F22" s="30">
+      <c r="F22" s="29">
         <v>4</v>
       </c>
       <c r="G22" s="20"/>
@@ -1502,7 +2699,7 @@
         <v>7.8264120370367891</v>
       </c>
       <c r="E24" s="11"/>
-      <c r="F24" s="30">
+      <c r="F24" s="29">
         <v>4.0999999999999996</v>
       </c>
       <c r="G24" s="20"/>
@@ -1526,7 +2723,7 @@
         <v>45702.707951388889</v>
       </c>
       <c r="D25" s="22">
-        <f>C25-$C$2</f>
+        <f t="shared" ref="D25:D30" si="1">C25-$C$2</f>
         <v>13.551412037035334</v>
       </c>
       <c r="E25" s="11">
@@ -1556,7 +2753,7 @@
         <v>45705.695451388892</v>
       </c>
       <c r="D26" s="22">
-        <f>C26-$C$2</f>
+        <f t="shared" si="1"/>
         <v>16.538912037038244</v>
       </c>
       <c r="E26" s="11">
@@ -1586,7 +2783,7 @@
         <v>45706.591284722221</v>
       </c>
       <c r="D27" s="22">
-        <f>C27-$C$2</f>
+        <f t="shared" si="1"/>
         <v>17.434745370366727</v>
       </c>
       <c r="E27" s="11">
@@ -1616,7 +2813,7 @@
         <v>45707.609340277777</v>
       </c>
       <c r="D28" s="22">
-        <f>C28-$C$2</f>
+        <f t="shared" si="1"/>
         <v>18.452800925922929</v>
       </c>
       <c r="E28" s="11">
@@ -1646,7 +2843,7 @@
         <v>45708.739201388889</v>
       </c>
       <c r="D29" s="22">
-        <f>C29-$C$2</f>
+        <f t="shared" si="1"/>
         <v>19.582662037035334</v>
       </c>
       <c r="E29" s="11">
@@ -1676,7 +2873,7 @@
         <v>45708.991990740738</v>
       </c>
       <c r="D30" s="22">
-        <f>C30-$C$2</f>
+        <f t="shared" si="1"/>
         <v>19.835451388884394</v>
       </c>
       <c r="E30" s="11">
@@ -1710,7 +2907,7 @@
         <v>14.44252314815094</v>
       </c>
       <c r="E31" s="11"/>
-      <c r="F31" s="30">
+      <c r="F31" s="29">
         <v>4.2</v>
       </c>
       <c r="G31" s="20"/>
@@ -1768,7 +2965,7 @@
         <v>14.859039351853426</v>
       </c>
       <c r="E33" s="11"/>
-      <c r="F33" s="31">
+      <c r="F33" s="30">
         <v>4.0999999999999996</v>
       </c>
       <c r="G33" s="25"/>
@@ -1857,7 +3054,7 @@
         <v>15.571111111115897</v>
       </c>
       <c r="E36" s="11"/>
-      <c r="F36" s="30">
+      <c r="F36" s="29">
         <v>4.2</v>
       </c>
       <c r="G36" s="20"/>
@@ -1915,7 +3112,7 @@
         <v>17.907662037039699</v>
       </c>
       <c r="E38" s="11"/>
-      <c r="F38" s="30">
+      <c r="F38" s="29">
         <v>4.3</v>
       </c>
       <c r="G38" s="20"/>
@@ -1973,7 +3170,7 @@
         <v>18.187523148153559</v>
       </c>
       <c r="E40" s="11"/>
-      <c r="F40" s="31">
+      <c r="F40" s="30">
         <v>4.3</v>
       </c>
       <c r="G40" s="25"/>
@@ -2021,7 +3218,7 @@
         <v>18.588912037041155</v>
       </c>
       <c r="E42" s="11"/>
-      <c r="F42" s="31">
+      <c r="F42" s="30">
         <v>4.0999999999999996</v>
       </c>
       <c r="G42" s="25"/>
@@ -2109,7 +3306,7 @@
         <v>19.193148148151522</v>
       </c>
       <c r="E45" s="11"/>
-      <c r="F45" s="30">
+      <c r="F45" s="29">
         <v>4.3</v>
       </c>
       <c r="G45" s="20"/>
@@ -2167,7 +3364,7 @@
         <v>19.579236111116188</v>
       </c>
       <c r="E47" s="11"/>
-      <c r="F47" s="31">
+      <c r="F47" s="30">
         <v>4.0999999999999996</v>
       </c>
       <c r="G47" s="25"/>
@@ -2225,7 +3422,7 @@
         <v>19.840347222227138</v>
       </c>
       <c r="E49" s="11"/>
-      <c r="F49" s="30">
+      <c r="F49" s="29">
         <v>4</v>
       </c>
       <c r="G49" s="20"/>
@@ -2283,7 +3480,7 @@
         <v>20.554884259261598</v>
       </c>
       <c r="E51" s="11"/>
-      <c r="F51" s="30">
+      <c r="F51" s="29">
         <v>4.0999999999999996</v>
       </c>
       <c r="G51" s="20"/>
@@ -2341,7 +3538,7 @@
         <v>20.940763888895162</v>
       </c>
       <c r="E53" s="11"/>
-      <c r="F53" s="31">
+      <c r="F53" s="30">
         <v>4.2</v>
       </c>
       <c r="G53" s="25"/>
@@ -2399,7 +3596,7 @@
         <v>21.192384259258688</v>
       </c>
       <c r="E55" s="11"/>
-      <c r="F55" s="30">
+      <c r="F55" s="29">
         <v>3.9</v>
       </c>
       <c r="G55" s="20"/>
@@ -2457,7 +3654,7 @@
         <v>21.57434027778072</v>
       </c>
       <c r="E57" s="11"/>
-      <c r="F57" s="30">
+      <c r="F57" s="29">
         <v>4.0999999999999996</v>
       </c>
       <c r="G57" s="20"/>
@@ -2515,7 +3712,7 @@
         <v>21.918368055557949</v>
       </c>
       <c r="E59" s="11"/>
-      <c r="F59" s="30">
+      <c r="F59" s="29">
         <v>4.0999999999999996</v>
       </c>
       <c r="G59" s="20"/>
@@ -2573,7 +3770,7 @@
         <v>22.642627314817219</v>
       </c>
       <c r="E61" s="11"/>
-      <c r="F61" s="30">
+      <c r="F61" s="29">
         <v>4.3</v>
       </c>
       <c r="G61" s="20"/>
@@ -2661,7 +3858,7 @@
         <v>25.194479166668316</v>
       </c>
       <c r="E64" s="11"/>
-      <c r="F64" s="30">
+      <c r="F64" s="29">
         <v>3.4</v>
       </c>
       <c r="G64" s="20"/>
@@ -2719,7 +3916,7 @@
         <v>25.713449074079108</v>
       </c>
       <c r="E66" s="11"/>
-      <c r="F66" s="31">
+      <c r="F66" s="30">
         <v>3.9</v>
       </c>
       <c r="G66" s="25"/>
@@ -2761,7 +3958,7 @@
         <v>27.0496006011962</v>
       </c>
       <c r="L67" s="10">
-        <f t="shared" ref="L67:L112" si="1">C67-J67</f>
+        <f t="shared" ref="L67:L112" si="2">C67-J67</f>
         <v>-15.593418310185371</v>
       </c>
     </row>
@@ -2777,7 +3974,7 @@
         <v>25.952951388891961</v>
       </c>
       <c r="E68" s="11"/>
-      <c r="F68" s="30">
+      <c r="F68" s="29">
         <v>4.2</v>
       </c>
       <c r="G68" s="20"/>
@@ -2789,7 +3986,7 @@
         <v>25.393087387084901</v>
       </c>
       <c r="L68" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-15.763417870373814</v>
       </c>
     </row>
@@ -2819,7 +4016,7 @@
         <v>25.032604217529201</v>
       </c>
       <c r="L69" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-15.978150011578691</v>
       </c>
     </row>
@@ -2835,7 +4032,7 @@
         <v>26.561388888891088</v>
       </c>
       <c r="E70" s="11"/>
-      <c r="F70" s="30">
+      <c r="F70" s="29">
         <v>4.0999999999999996</v>
       </c>
       <c r="G70" s="20"/>
@@ -2847,7 +4044,7 @@
         <v>26.194164276123001</v>
       </c>
       <c r="L70" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-16.157760844907898</v>
       </c>
     </row>
@@ -2877,7 +4074,7 @@
         <v>29.678848266601499</v>
       </c>
       <c r="L71" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-16.296196006944228</v>
       </c>
     </row>
@@ -2907,7 +4104,7 @@
         <v>33.976051330566399</v>
       </c>
       <c r="L72" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-18.602451585647941</v>
       </c>
     </row>
@@ -2923,7 +4120,7 @@
         <v>27.586469907408173</v>
       </c>
       <c r="E73" s="11"/>
-      <c r="F73" s="30">
+      <c r="F73" s="29">
         <v>4</v>
       </c>
       <c r="G73" s="20"/>
@@ -2935,7 +4132,7 @@
         <v>31.770229339599599</v>
       </c>
       <c r="L73" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-18.64587570601725</v>
       </c>
     </row>
@@ -2965,7 +4162,7 @@
         <v>27.284200668334901</v>
       </c>
       <c r="L74" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-18.981625104162958</v>
       </c>
     </row>
@@ -2981,7 +4178,7 @@
         <v>27.94951388888876</v>
       </c>
       <c r="E75" s="11"/>
-      <c r="F75" s="30">
+      <c r="F75" s="29">
         <v>4.3</v>
       </c>
       <c r="G75" s="20"/>
@@ -2993,7 +4190,7 @@
         <v>39.406204223632798</v>
       </c>
       <c r="L75" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-19.048802939818415</v>
       </c>
     </row>
@@ -3023,7 +4220,7 @@
         <v>40.905361175537102</v>
       </c>
       <c r="L76" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-19.964253773148812</v>
       </c>
     </row>
@@ -3039,7 +4236,7 @@
         <v>28.157500000001164</v>
       </c>
       <c r="E77" s="11"/>
-      <c r="F77" s="30">
+      <c r="F77" s="29">
         <v>4.2</v>
       </c>
       <c r="G77" s="20"/>
@@ -3051,7 +4248,7 @@
         <v>28.299852371215799</v>
       </c>
       <c r="L77" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-20.220674270836753</v>
       </c>
     </row>
@@ -3081,7 +4278,7 @@
         <v>28.6975288391113</v>
       </c>
       <c r="L78" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-20.483002800923714</v>
       </c>
     </row>
@@ -3097,7 +4294,7 @@
         <v>28.459826388891088</v>
       </c>
       <c r="E79" s="11"/>
-      <c r="F79" s="30">
+      <c r="F79" s="29">
         <v>4.3</v>
       </c>
       <c r="G79" s="20"/>
@@ -3109,7 +4306,7 @@
         <v>39.806743621826101</v>
       </c>
       <c r="L79" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-20.531548495368042</v>
       </c>
     </row>
@@ -3139,7 +4336,7 @@
         <v>30.0793857574462</v>
       </c>
       <c r="L80" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-20.657997673610225</v>
       </c>
     </row>
@@ -3155,7 +4352,7 @@
         <v>28.903645833335759</v>
       </c>
       <c r="E81" s="11"/>
-      <c r="F81" s="30">
+      <c r="F81" s="29">
         <v>4.4000000000000004</v>
       </c>
       <c r="G81" s="20"/>
@@ -3167,7 +4364,7 @@
         <v>27.739097595214801</v>
       </c>
       <c r="L81" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-20.840503391205857</v>
       </c>
     </row>
@@ -3197,7 +4394,7 @@
         <v>37.709640502929602</v>
       </c>
       <c r="L82" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-20.578143622682546</v>
       </c>
     </row>
@@ -3213,7 +4410,7 @@
         <v>29.63684027778072</v>
       </c>
       <c r="E83" s="11"/>
-      <c r="F83" s="30">
+      <c r="F83" s="29">
         <v>4.3</v>
       </c>
       <c r="G83" s="20"/>
@@ -3225,7 +4422,7 @@
         <v>27.4100837707519</v>
       </c>
       <c r="L83" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-20.768425659720378</v>
       </c>
     </row>
@@ -3255,7 +4452,7 @@
         <v>21.8855171203613</v>
       </c>
       <c r="L84" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-20.971186620372464</v>
       </c>
     </row>
@@ -3271,7 +4468,7 @@
         <v>31.936296296298678</v>
       </c>
       <c r="E85" s="11"/>
-      <c r="F85" s="31">
+      <c r="F85" s="30">
         <v>4.5999999999999996</v>
       </c>
       <c r="G85" s="25"/>
@@ -3283,7 +4480,7 @@
         <v>24.2858867645263</v>
       </c>
       <c r="L85" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-21.436329155090789</v>
       </c>
     </row>
@@ -3313,7 +4510,7 @@
         <v>32.382480621337798</v>
       </c>
       <c r="L86" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-22.01354416666436</v>
       </c>
     </row>
@@ -3329,7 +4526,7 @@
         <v>32.167777777780429</v>
       </c>
       <c r="E87" s="11"/>
-      <c r="F87" s="30">
+      <c r="F87" s="29">
         <v>4</v>
       </c>
       <c r="G87" s="20"/>
@@ -3341,7 +4538,7 @@
         <v>24.4489631652832</v>
       </c>
       <c r="L87" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-22.824290925927926</v>
       </c>
     </row>
@@ -3371,7 +4568,7 @@
         <v>37.083084106445298</v>
       </c>
       <c r="L88" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-22.852442418981809</v>
       </c>
     </row>
@@ -3387,7 +4584,7 @@
         <v>32.596585648148903</v>
       </c>
       <c r="E89" s="11"/>
-      <c r="F89" s="31">
+      <c r="F89" s="30">
         <v>4.3</v>
       </c>
       <c r="G89" s="25"/>
@@ -3399,7 +4596,7 @@
         <v>32.391063690185497</v>
       </c>
       <c r="L89" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-23.791307905092253</v>
       </c>
     </row>
@@ -3429,7 +4626,7 @@
         <v>30.511394500732401</v>
       </c>
       <c r="L90" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-23.93577225694753</v>
       </c>
     </row>
@@ -3445,7 +4642,7 @@
         <v>32.900115740747424</v>
       </c>
       <c r="E91" s="11"/>
-      <c r="F91" s="30">
+      <c r="F91" s="29">
         <v>4.0999999999999996</v>
       </c>
       <c r="G91" s="20"/>
@@ -3457,7 +4654,7 @@
         <v>23.533447265625</v>
       </c>
       <c r="L91" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-26.826667523142532</v>
       </c>
     </row>
@@ -3487,7 +4684,7 @@
         <v>25.490362167358398</v>
       </c>
       <c r="L92" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-26.9552212847193</v>
       </c>
     </row>
@@ -3519,7 +4716,7 @@
         <v>30.743135452270501</v>
       </c>
       <c r="L93" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-27.312855428237526</v>
       </c>
     </row>
@@ -3535,11 +4732,11 @@
         <v>33.864618055558822</v>
       </c>
       <c r="E94" s="11"/>
-      <c r="F94" s="30">
+      <c r="F94" s="29">
         <v>4</v>
       </c>
       <c r="G94" s="12"/>
-      <c r="H94" s="32">
+      <c r="H94" s="17">
         <v>4.5</v>
       </c>
       <c r="J94" s="6">
@@ -3549,7 +4746,7 @@
         <v>29.982112884521399</v>
       </c>
       <c r="L94" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-27.824670763890026</v>
       </c>
     </row>
@@ -3581,7 +4778,7 @@
         <v>43.3228950500488</v>
       </c>
       <c r="L95" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-28.499668773147278</v>
       </c>
     </row>
@@ -3597,11 +4794,11 @@
         <v>34.231296296296932</v>
       </c>
       <c r="E96" s="11"/>
-      <c r="F96" s="31">
+      <c r="F96" s="30">
         <v>4.0999999999999996</v>
       </c>
       <c r="G96" s="12"/>
-      <c r="H96" s="33">
+      <c r="H96" s="18">
         <v>4.5999999999999996</v>
       </c>
       <c r="J96" s="6">
@@ -3611,7 +4808,7 @@
         <v>33.5726509094238</v>
       </c>
       <c r="L96" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-28.603830775464303</v>
       </c>
     </row>
@@ -3643,7 +4840,7 @@
         <v>28.065250396728501</v>
       </c>
       <c r="L97" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-28.980222905098344</v>
       </c>
     </row>
@@ -3675,7 +4872,7 @@
         <v>24.351688385009702</v>
       </c>
       <c r="L98" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-32.003130057870294</v>
       </c>
     </row>
@@ -3691,11 +4888,11 @@
         <v>34.928692129629781</v>
       </c>
       <c r="E99" s="11"/>
-      <c r="F99" s="31">
+      <c r="F99" s="30">
         <v>4.0999999999999996</v>
       </c>
       <c r="G99" s="12"/>
-      <c r="H99" s="33">
+      <c r="H99" s="18">
         <v>4.5</v>
       </c>
       <c r="J99" s="6">
@@ -3705,7 +4902,7 @@
         <v>27.244146347045898</v>
       </c>
       <c r="L99" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-32.421703576394066</v>
       </c>
     </row>
@@ -3737,7 +4934,7 @@
         <v>29.850505828857401</v>
       </c>
       <c r="L100" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-31.893422337961965</v>
       </c>
     </row>
@@ -3769,7 +4966,7 @@
         <v>40.238750457763601</v>
       </c>
       <c r="L101" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-32.551744432872511</v>
       </c>
     </row>
@@ -3785,11 +4982,11 @@
         <v>38.902175925926713</v>
       </c>
       <c r="E102" s="11"/>
-      <c r="F102" s="30">
+      <c r="F102" s="29">
         <v>4.5999999999999996</v>
       </c>
       <c r="G102" s="12"/>
-      <c r="H102" s="32">
+      <c r="H102" s="17">
         <v>4.9000000000000004</v>
       </c>
       <c r="J102" s="6">
@@ -3799,7 +4996,7 @@
         <v>30.210990905761701</v>
       </c>
       <c r="L102" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-31.837106516206404</v>
       </c>
     </row>
@@ -3831,7 +5028,7 @@
         <v>36.058849334716797</v>
       </c>
       <c r="L103" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-32.067717083329626</v>
       </c>
     </row>
@@ -3847,11 +5044,11 @@
         <v>39.140324074076489</v>
       </c>
       <c r="E104" s="11"/>
-      <c r="F104" s="30">
+      <c r="F104" s="29">
         <v>3.4</v>
       </c>
       <c r="G104" s="12"/>
-      <c r="H104" s="32">
+      <c r="H104" s="17">
         <v>4</v>
       </c>
       <c r="J104" s="6">
@@ -3861,7 +5058,7 @@
         <v>26.674810409545898</v>
       </c>
       <c r="L104" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-34.589937465279945</v>
       </c>
     </row>
@@ -3893,7 +5090,7 @@
         <v>30.465618133544901</v>
       </c>
       <c r="L105" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-34.705910081014736</v>
       </c>
     </row>
@@ -3925,7 +5122,7 @@
         <v>31.1122016906738</v>
       </c>
       <c r="L106" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-35.096189004631015</v>
       </c>
     </row>
@@ -3941,11 +5138,11 @@
         <v>40.4995949074073</v>
       </c>
       <c r="E107" s="11"/>
-      <c r="F107" s="30">
+      <c r="F107" s="29">
         <v>4.3</v>
       </c>
       <c r="G107" s="12"/>
-      <c r="H107" s="32">
+      <c r="H107" s="17">
         <v>4.9000000000000004</v>
       </c>
       <c r="J107" s="6">
@@ -3955,7 +5152,7 @@
         <v>35.380794525146399</v>
       </c>
       <c r="L107" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-35.241773692134302</v>
       </c>
     </row>
@@ -3987,7 +5184,7 @@
         <v>39.065746307372997</v>
       </c>
       <c r="L108" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-35.348950150466408</v>
       </c>
     </row>
@@ -4019,7 +5216,7 @@
         <v>25.444585800170898</v>
       </c>
       <c r="L109" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-37.040623993052577</v>
       </c>
     </row>
@@ -4035,11 +5232,11 @@
         <v>40.837615740747424</v>
       </c>
       <c r="E110" s="11"/>
-      <c r="F110" s="30">
+      <c r="F110" s="29">
         <v>3.9</v>
       </c>
       <c r="G110" s="12"/>
-      <c r="H110" s="32">
+      <c r="H110" s="17">
         <v>4.4000000000000004</v>
       </c>
       <c r="J110" s="6">
@@ -4049,7 +5246,7 @@
         <v>32.545555114746001</v>
       </c>
       <c r="L110" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-37.156535092588456</v>
       </c>
     </row>
@@ -4081,7 +5278,7 @@
         <v>41.952484130859297</v>
       </c>
       <c r="L111" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-37.525349953699333</v>
       </c>
     </row>
@@ -4097,11 +5294,11 @@
         <v>41.17862268519093</v>
       </c>
       <c r="E112" s="11"/>
-      <c r="F112" s="30">
+      <c r="F112" s="29">
         <v>4</v>
       </c>
       <c r="G112" s="12"/>
-      <c r="H112" s="32">
+      <c r="H112" s="17">
         <v>4.7</v>
       </c>
       <c r="J112" s="6">
@@ -4111,7 +5308,7 @@
         <v>28.428596496581999</v>
       </c>
       <c r="L112" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-48.210662812496594</v>
       </c>
     </row>
@@ -4143,7 +5340,7 @@
         <v>29.029403686523398</v>
       </c>
       <c r="L113" s="10">
-        <f t="shared" ref="L113:L155" si="2">C113-J113</f>
+        <f t="shared" ref="L113:L155" si="3">C113-J113</f>
         <v>-49.063538182868797</v>
       </c>
     </row>
@@ -4159,11 +5356,11 @@
         <v>41.54959490741021</v>
       </c>
       <c r="E114" s="11"/>
-      <c r="F114" s="30">
+      <c r="F114" s="29">
         <v>4.2</v>
       </c>
       <c r="G114" s="12"/>
-      <c r="H114" s="32">
+      <c r="H114" s="17">
         <v>4.9000000000000004</v>
       </c>
       <c r="J114" s="6">
@@ -4173,7 +5370,7 @@
         <v>32.539836883544901</v>
       </c>
       <c r="L114" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-49.211216261574009</v>
       </c>
     </row>
@@ -4205,7 +5402,7 @@
         <v>32.894596099853501</v>
       </c>
       <c r="L115" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-49.680197152782057</v>
       </c>
     </row>
@@ -4221,11 +5418,11 @@
         <v>41.908923611117643</v>
       </c>
       <c r="E116" s="11"/>
-      <c r="F116" s="30">
+      <c r="F116" s="29">
         <v>4.0999999999999996</v>
       </c>
       <c r="G116" s="12"/>
-      <c r="H116" s="32">
+      <c r="H116" s="17">
         <v>4.3</v>
       </c>
       <c r="J116" s="6">
@@ -4235,7 +5432,7 @@
         <v>30.786048889160099</v>
       </c>
       <c r="L116" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-49.860221215276397</v>
       </c>
     </row>
@@ -4267,7 +5464,7 @@
         <v>30.1137180328369</v>
       </c>
       <c r="L117" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-50.039929641199706</v>
       </c>
     </row>
@@ -4283,11 +5480,11 @@
         <v>42.56753472222772</v>
       </c>
       <c r="E118" s="11"/>
-      <c r="F118" s="31">
+      <c r="F118" s="30">
         <v>4.0999999999999996</v>
       </c>
       <c r="G118" s="12"/>
-      <c r="H118" s="33">
+      <c r="H118" s="18">
         <v>4.5</v>
       </c>
       <c r="J118" s="6">
@@ -4297,7 +5494,7 @@
         <v>28.980766296386701</v>
       </c>
       <c r="L118" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-51.498147638885712</v>
       </c>
     </row>
@@ -4329,7 +5526,7 @@
         <v>38.359085083007798</v>
       </c>
       <c r="L119" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-52.278122939816967</v>
       </c>
     </row>
@@ -4345,11 +5542,11 @@
         <v>42.848738425927877</v>
       </c>
       <c r="E120" s="11"/>
-      <c r="F120" s="31">
+      <c r="F120" s="30">
         <v>3.9</v>
       </c>
       <c r="G120" s="12"/>
-      <c r="H120" s="33">
+      <c r="H120" s="18">
         <v>4.0999999999999996</v>
       </c>
       <c r="J120" s="6">
@@ -4359,7 +5556,7 @@
         <v>30.7746047973632</v>
       </c>
       <c r="L120" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-52.528746805553965</v>
       </c>
     </row>
@@ -4391,7 +5588,7 @@
         <v>40.745147705078097</v>
       </c>
       <c r="L121" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-53.004520706017502</v>
       </c>
     </row>
@@ -4407,11 +5604,11 @@
         <v>43.177071759258979</v>
       </c>
       <c r="E122" s="11"/>
-      <c r="F122" s="30">
+      <c r="F122" s="29">
         <v>4.0999999999999996</v>
       </c>
       <c r="G122" s="12"/>
-      <c r="H122" s="32">
+      <c r="H122" s="17">
         <v>4.7</v>
       </c>
       <c r="J122" s="6">
@@ -4421,7 +5618,7 @@
         <v>33.083423614501903</v>
       </c>
       <c r="L122" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-53.174026655098714</v>
       </c>
     </row>
@@ -4437,11 +5634,11 @@
         <v>45.909085648148903</v>
       </c>
       <c r="E123" s="11"/>
-      <c r="F123" s="30">
+      <c r="F123" s="29">
         <v>4</v>
       </c>
       <c r="G123" s="12"/>
-      <c r="H123" s="32">
+      <c r="H123" s="17">
         <v>3.9</v>
       </c>
       <c r="J123" s="6">
@@ -4451,7 +5648,7 @@
         <v>26.357240676879801</v>
       </c>
       <c r="L123" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-50.817702245374676</v>
       </c>
     </row>
@@ -4483,7 +5680,7 @@
         <v>36.596714019775298</v>
       </c>
       <c r="L124" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-51.010760266202851</v>
       </c>
     </row>
@@ -4499,11 +5696,11 @@
         <v>46.084780092598521</v>
       </c>
       <c r="E125" s="11"/>
-      <c r="F125" s="30">
+      <c r="F125" s="29">
         <v>3.8</v>
       </c>
       <c r="G125" s="12"/>
-      <c r="H125" s="32">
+      <c r="H125" s="17">
         <v>4.4000000000000004</v>
       </c>
       <c r="J125" s="6">
@@ -4513,7 +5710,7 @@
         <v>31.990526199340799</v>
       </c>
       <c r="L125" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-51.637844525459514</v>
       </c>
     </row>
@@ -4545,7 +5742,7 @@
         <v>42.3673286437988</v>
       </c>
       <c r="L126" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-51.724641979169974</v>
       </c>
     </row>
@@ -4561,11 +5758,11 @@
         <v>46.320196759261307</v>
       </c>
       <c r="E127" s="11"/>
-      <c r="F127" s="30">
+      <c r="F127" s="29">
         <v>3.9</v>
       </c>
       <c r="G127" s="12"/>
-      <c r="H127" s="32">
+      <c r="H127" s="17">
         <v>4.3</v>
       </c>
       <c r="J127" s="6">
@@ -4575,7 +5772,7 @@
         <v>42.172779083251903</v>
       </c>
       <c r="L127" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-52.414224976855621</v>
       </c>
     </row>
@@ -4607,7 +5804,7 @@
         <v>33.833000183105398</v>
       </c>
       <c r="L128" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-52.11214930555434</v>
       </c>
     </row>
@@ -4623,11 +5820,11 @@
         <v>46.932094907409919</v>
       </c>
       <c r="E129" s="11"/>
-      <c r="F129" s="31">
+      <c r="F129" s="30">
         <v>3.9</v>
       </c>
       <c r="G129" s="12"/>
-      <c r="H129" s="33">
+      <c r="H129" s="18">
         <v>4.0999999999999996</v>
       </c>
       <c r="J129" s="6">
@@ -4637,7 +5834,7 @@
         <v>31.778812408447202</v>
       </c>
       <c r="L129" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-52.966217824076011</v>
       </c>
     </row>
@@ -4669,7 +5866,7 @@
         <v>32.9575386047363</v>
       </c>
       <c r="L130" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-53.206560196762439</v>
       </c>
     </row>
@@ -4685,11 +5882,11 @@
         <v>47.188252314816054</v>
       </c>
       <c r="E131" s="11"/>
-      <c r="F131" s="30">
+      <c r="F131" s="29">
         <v>3.9</v>
       </c>
       <c r="G131" s="12"/>
-      <c r="H131" s="32">
+      <c r="H131" s="17">
         <v>4.4000000000000004</v>
       </c>
       <c r="J131" s="6">
@@ -4699,7 +5896,7 @@
         <v>28.030918121337798</v>
       </c>
       <c r="L131" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-54.529504560188798</v>
       </c>
     </row>
@@ -4715,11 +5912,11 @@
         <v>47.905416666668316</v>
       </c>
       <c r="E132" s="11"/>
-      <c r="F132" s="30">
+      <c r="F132" s="29">
         <v>3.9</v>
       </c>
       <c r="G132" s="12"/>
-      <c r="H132" s="32">
+      <c r="H132" s="17">
         <v>4</v>
       </c>
       <c r="J132" s="6">
@@ -4729,7 +5926,7 @@
         <v>27.761985778808501</v>
       </c>
       <c r="L132" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-54.7762311921324</v>
       </c>
     </row>
@@ -4761,7 +5958,7 @@
         <v>38.874061584472599</v>
       </c>
       <c r="L133" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-55.724161990743596</v>
       </c>
     </row>
@@ -4777,11 +5974,11 @@
         <v>48.149861111116479</v>
       </c>
       <c r="E134" s="11"/>
-      <c r="F134" s="30">
+      <c r="F134" s="29">
         <v>3.9</v>
       </c>
       <c r="G134" s="12"/>
-      <c r="H134" s="32">
+      <c r="H134" s="17">
         <v>3.9</v>
       </c>
       <c r="J134" s="6">
@@ -4791,7 +5988,7 @@
         <v>29.298336029052699</v>
       </c>
       <c r="L134" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-56.247064224531641</v>
       </c>
     </row>
@@ -4823,7 +6020,7 @@
         <v>31.6557903289794</v>
       </c>
       <c r="L135" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-56.992900208337232</v>
       </c>
     </row>
@@ -4839,11 +6036,11 @@
         <v>48.571388888893125</v>
       </c>
       <c r="E136" s="11"/>
-      <c r="F136" s="30">
+      <c r="F136" s="29">
         <v>3.8</v>
       </c>
       <c r="G136" s="12"/>
-      <c r="H136" s="32">
+      <c r="H136" s="17">
         <v>3.9</v>
       </c>
       <c r="J136" s="6">
@@ -4853,7 +6050,7 @@
         <v>28.8491611480712</v>
       </c>
       <c r="L136" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-57.158869884260639</v>
       </c>
     </row>
@@ -4885,7 +6082,7 @@
         <v>40.473354339599602</v>
       </c>
       <c r="L137" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-57.232492407412792</v>
       </c>
     </row>
@@ -4901,11 +6098,11 @@
         <v>48.944305555560277</v>
       </c>
       <c r="E138" s="11"/>
-      <c r="F138" s="30">
+      <c r="F138" s="29">
         <v>3.8</v>
       </c>
       <c r="G138" s="12"/>
-      <c r="H138" s="32">
+      <c r="H138" s="17">
         <v>4</v>
       </c>
       <c r="J138" s="6">
@@ -4915,7 +6112,7 @@
         <v>42.404518127441399</v>
       </c>
       <c r="L138" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-57.558872071756923</v>
       </c>
     </row>
@@ -4947,7 +6144,7 @@
         <v>26.5060119628906</v>
       </c>
       <c r="L139" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-58.922756712963746</v>
       </c>
     </row>
@@ -4963,11 +6160,11 @@
         <v>49.173472222224518</v>
       </c>
       <c r="E140" s="11"/>
-      <c r="F140" s="30">
+      <c r="F140" s="29">
         <v>3.9</v>
       </c>
       <c r="G140" s="12"/>
-      <c r="H140" s="32">
+      <c r="H140" s="17">
         <v>4.0999999999999996</v>
       </c>
       <c r="J140" s="6">
@@ -4977,7 +6174,7 @@
         <v>30.2310180664062</v>
       </c>
       <c r="L140" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-59.83318261574459</v>
       </c>
     </row>
@@ -5009,7 +6206,7 @@
         <v>28.563062667846602</v>
       </c>
       <c r="L141" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-60.027626030096144</v>
       </c>
     </row>
@@ -5025,11 +6222,11 @@
         <v>49.53388888889458</v>
       </c>
       <c r="E142" s="11"/>
-      <c r="F142" s="30">
+      <c r="F142" s="29">
         <v>3.6</v>
       </c>
       <c r="G142" s="12"/>
-      <c r="H142" s="32">
+      <c r="H142" s="17">
         <v>4</v>
       </c>
       <c r="J142" s="6">
@@ -5039,7 +6236,7 @@
         <v>26.892246246337798</v>
       </c>
       <c r="L142" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-60.844981712958543</v>
       </c>
     </row>
@@ -5071,7 +6268,7 @@
         <v>41.451812744140597</v>
       </c>
       <c r="L143" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-61.204009687506186</v>
       </c>
     </row>
@@ -5087,11 +6284,11 @@
         <v>49.937650462969032</v>
       </c>
       <c r="E144" s="11"/>
-      <c r="F144" s="30">
+      <c r="F144" s="29">
         <v>4</v>
       </c>
       <c r="G144" s="12"/>
-      <c r="H144" s="32">
+      <c r="H144" s="17">
         <v>4.2</v>
       </c>
       <c r="J144" s="6">
@@ -5101,7 +6298,7 @@
         <v>27.241285324096602</v>
       </c>
       <c r="L144" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-61.775253587962652</v>
       </c>
     </row>
@@ -5133,7 +6330,7 @@
         <v>32.285205841064403</v>
       </c>
       <c r="L145" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-62.705403449079313</v>
       </c>
     </row>
@@ -5149,11 +6346,11 @@
         <v>50.192222222227429</v>
       </c>
       <c r="E146" s="11"/>
-      <c r="F146" s="30">
+      <c r="F146" s="29">
         <v>3.5</v>
       </c>
       <c r="G146" s="12"/>
-      <c r="H146" s="32">
+      <c r="H146" s="17">
         <v>4</v>
       </c>
       <c r="J146" s="6">
@@ -5163,7 +6360,7 @@
         <v>33.629871368408203</v>
       </c>
       <c r="L146" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-62.816506516202935</v>
       </c>
     </row>
@@ -5195,7 +6392,7 @@
         <v>30.703081130981399</v>
       </c>
       <c r="L147" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-62.959568043981562</v>
       </c>
     </row>
@@ -5211,11 +6408,11 @@
         <v>50.59777777778072</v>
       </c>
       <c r="E148" s="11"/>
-      <c r="F148" s="30">
+      <c r="F148" s="29">
         <v>3.8</v>
       </c>
       <c r="G148" s="12"/>
-      <c r="H148" s="32">
+      <c r="H148" s="17">
         <v>4</v>
       </c>
       <c r="J148" s="6">
@@ -5225,7 +6422,7 @@
         <v>36.319198608398402</v>
       </c>
       <c r="L148" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-65.402622731482552</v>
       </c>
     </row>
@@ -5257,7 +6454,7 @@
         <v>32.064910888671797</v>
       </c>
       <c r="L149" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-63.685253275463765</v>
       </c>
     </row>
@@ -5289,7 +6486,7 @@
         <v>29.773260116577099</v>
       </c>
       <c r="L150" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-63.631087442132412</v>
       </c>
     </row>
@@ -5321,7 +6518,7 @@
         <v>27.1211242675781</v>
       </c>
       <c r="L151" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-64.66858939814847</v>
       </c>
     </row>
@@ -5337,11 +6534,11 @@
         <v>53.903344907412247</v>
       </c>
       <c r="E152" s="11"/>
-      <c r="F152" s="30">
+      <c r="F152" s="29">
         <v>3.7</v>
       </c>
       <c r="G152" s="12"/>
-      <c r="H152" s="32">
+      <c r="H152" s="17">
         <v>4</v>
       </c>
       <c r="J152" s="6">
@@ -5351,7 +6548,7 @@
         <v>28.877771377563398</v>
       </c>
       <c r="L152" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-64.810944421296881</v>
       </c>
     </row>
@@ -5383,7 +6580,7 @@
         <v>32.445423126220703</v>
       </c>
       <c r="L153" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-65.022069189813919</v>
       </c>
     </row>
@@ -5399,11 +6596,11 @@
         <v>54.181817129632691</v>
       </c>
       <c r="E154" s="11"/>
-      <c r="F154" s="30">
+      <c r="F154" s="29">
         <v>3.7</v>
       </c>
       <c r="G154" s="12"/>
-      <c r="H154" s="32">
+      <c r="H154" s="17">
         <v>4.0999999999999996</v>
       </c>
       <c r="J154" s="6">
@@ -5413,7 +6610,7 @@
         <v>30.963430404663001</v>
       </c>
       <c r="L154" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-65.566503194444522</v>
       </c>
     </row>
@@ -5445,7 +6642,7 @@
         <v>36.8313179016113</v>
       </c>
       <c r="L155" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-65.010244548611809</v>
       </c>
     </row>
@@ -5461,11 +6658,11 @@
         <v>55.178402777783049</v>
       </c>
       <c r="E156" s="11"/>
-      <c r="F156" s="30">
+      <c r="F156" s="29">
         <v>3.7</v>
       </c>
       <c r="G156" s="12"/>
-      <c r="H156" s="32">
+      <c r="H156" s="17">
         <v>3.7</v>
       </c>
       <c r="J156" s="6">
@@ -5475,7 +6672,7 @@
         <v>30.319707870483398</v>
       </c>
       <c r="L156" s="10">
-        <f t="shared" ref="L156:L197" si="3">C156-J156</f>
+        <f t="shared" ref="L156:L197" si="4">C156-J156</f>
         <v>-67.547695775458124</v>
       </c>
     </row>
@@ -5507,7 +6704,7 @@
         <v>27.9565334320068</v>
       </c>
       <c r="L157" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-68.147752511576982</v>
       </c>
     </row>
@@ -5539,7 +6736,7 @@
         <v>31.295305252075099</v>
       </c>
       <c r="L158" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-68.997048935190833</v>
       </c>
     </row>
@@ -5555,11 +6752,11 @@
         <v>56.276967592595611</v>
       </c>
       <c r="E159" s="11"/>
-      <c r="F159" s="30">
+      <c r="F159" s="29">
         <v>3.7</v>
       </c>
       <c r="G159" s="12"/>
-      <c r="H159" s="32">
+      <c r="H159" s="17">
         <v>3.8</v>
       </c>
       <c r="J159" s="6">
@@ -5569,7 +6766,7 @@
         <v>26.6805324554443</v>
       </c>
       <c r="L159" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-70.444263425924873</v>
       </c>
     </row>
@@ -5601,7 +6798,7 @@
         <v>28.033779144287099</v>
       </c>
       <c r="L160" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-71.035940891197242</v>
       </c>
     </row>
@@ -5633,7 +6830,7 @@
         <v>28.806245803833001</v>
       </c>
       <c r="L161" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-74.178301574072975</v>
       </c>
     </row>
@@ -5649,11 +6846,11 @@
         <v>56.877650462964084</v>
       </c>
       <c r="E162" s="11"/>
-      <c r="F162" s="30">
+      <c r="F162" s="29">
         <v>3.7</v>
       </c>
       <c r="G162" s="12"/>
-      <c r="H162" s="32">
+      <c r="H162" s="17">
         <v>4</v>
       </c>
       <c r="J162" s="6">
@@ -5663,7 +6860,7 @@
         <v>34.224956512451101</v>
       </c>
       <c r="L162" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-74.843584768517758</v>
       </c>
     </row>
@@ -5695,7 +6892,7 @@
         <v>43.39155960083</v>
       </c>
       <c r="L163" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-74.575519849538978</v>
       </c>
     </row>
@@ -5711,11 +6908,11 @@
         <v>57.629155092596193</v>
       </c>
       <c r="E164" s="11"/>
-      <c r="F164" s="30">
+      <c r="F164" s="29">
         <v>3.9</v>
       </c>
       <c r="G164" s="12"/>
-      <c r="H164" s="32">
+      <c r="H164" s="17">
         <v>4.0999999999999996</v>
       </c>
       <c r="J164" s="6">
@@ -5725,7 +6922,7 @@
         <v>32.791603088378899</v>
       </c>
       <c r="L164" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-76.060135081017506</v>
       </c>
     </row>
@@ -5757,7 +6954,7 @@
         <v>28.3856811523437</v>
       </c>
       <c r="L165" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-74.703286122683494</v>
       </c>
     </row>
@@ -5773,11 +6970,11 @@
         <v>59.920752314814308</v>
       </c>
       <c r="E166" s="11"/>
-      <c r="F166" s="30">
+      <c r="F166" s="29">
         <v>4.2</v>
       </c>
       <c r="G166" s="12"/>
-      <c r="H166" s="32">
+      <c r="H166" s="17">
         <v>4</v>
       </c>
       <c r="J166" s="6">
@@ -5787,7 +6984,7 @@
         <v>39.889713287353501</v>
       </c>
       <c r="L166" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-77.059502453710593</v>
       </c>
     </row>
@@ -5819,7 +7016,7 @@
         <v>29.8333415985107</v>
       </c>
       <c r="L167" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-76.999117812505574</v>
       </c>
     </row>
@@ -5835,11 +7032,11 @@
         <v>60.569351851852844</v>
       </c>
       <c r="E168" s="11"/>
-      <c r="F168" s="30">
+      <c r="F168" s="29">
         <v>4.0999999999999996</v>
       </c>
       <c r="G168" s="12"/>
-      <c r="H168" s="32">
+      <c r="H168" s="17">
         <v>4.4000000000000004</v>
       </c>
       <c r="J168" s="6">
@@ -5849,7 +7046,7 @@
         <v>38.590824127197202</v>
       </c>
       <c r="L168" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-77.426886006949644</v>
       </c>
     </row>
@@ -5881,7 +7078,7 @@
         <v>29.38130569458</v>
       </c>
       <c r="L169" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-77.723423171293689</v>
       </c>
     </row>
@@ -5897,11 +7094,11 @@
         <v>60.800590277780429</v>
       </c>
       <c r="E170" s="11"/>
-      <c r="F170" s="30">
+      <c r="F170" s="29">
         <v>3.6</v>
       </c>
       <c r="G170" s="12"/>
-      <c r="H170" s="32">
+      <c r="H170" s="17">
         <v>4</v>
       </c>
       <c r="J170" s="6">
@@ -5911,7 +7108,7 @@
         <v>28.4085693359375</v>
       </c>
       <c r="L170" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-78.907449687503686</v>
       </c>
     </row>
@@ -5943,7 +7140,7 @@
         <v>30.611530303955</v>
       </c>
       <c r="L171" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-81.9310507291666</v>
       </c>
     </row>
@@ -5959,11 +7156,11 @@
         <v>61.179050925929914</v>
       </c>
       <c r="E172" s="11"/>
-      <c r="F172" s="30">
+      <c r="F172" s="29">
         <v>3.6</v>
       </c>
       <c r="G172" s="12"/>
-      <c r="H172" s="32">
+      <c r="H172" s="17">
         <v>3.9</v>
       </c>
       <c r="J172" s="6">
@@ -5973,7 +7170,7 @@
         <v>44.475875854492102</v>
       </c>
       <c r="L172" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-82.810933842592931</v>
       </c>
     </row>
@@ -6005,7 +7202,7 @@
         <v>31.718730926513601</v>
       </c>
       <c r="L173" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-83.052585277771868</v>
       </c>
     </row>
@@ -6021,11 +7218,11 @@
         <v>61.515208333337796</v>
       </c>
       <c r="E174" s="11"/>
-      <c r="F174" s="30">
+      <c r="F174" s="29">
         <v>3.7</v>
       </c>
       <c r="G174" s="12"/>
-      <c r="H174" s="32">
+      <c r="H174" s="17">
         <v>3.9</v>
       </c>
       <c r="J174" s="6">
@@ -6035,7 +7232,7 @@
         <v>30.445592880248999</v>
       </c>
       <c r="L174" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-84.199779074071557</v>
       </c>
     </row>
@@ -6067,7 +7264,7 @@
         <v>30.0793857574462</v>
       </c>
       <c r="L175" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-85.046337268518982</v>
       </c>
     </row>
@@ -6083,11 +7280,11 @@
         <v>61.88184027778334</v>
       </c>
       <c r="E176" s="11"/>
-      <c r="F176" s="30">
+      <c r="F176" s="29">
         <v>3.7</v>
       </c>
       <c r="G176" s="12"/>
-      <c r="H176" s="32">
+      <c r="H176" s="17">
         <v>3.8</v>
       </c>
       <c r="J176" s="6">
@@ -6097,7 +7294,7 @@
         <v>33.469654083251903</v>
       </c>
       <c r="L176" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-85.801896516204579</v>
       </c>
     </row>
@@ -6129,7 +7326,7 @@
         <v>42.204250335693303</v>
       </c>
       <c r="L177" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-86.444242916666553</v>
       </c>
     </row>
@@ -6145,11 +7342,11 @@
         <v>62.198541666672099</v>
       </c>
       <c r="E178" s="11"/>
-      <c r="F178" s="30">
+      <c r="F178" s="29">
         <v>3.7</v>
       </c>
       <c r="G178" s="12"/>
-      <c r="H178" s="32">
+      <c r="H178" s="17">
         <v>3.8</v>
       </c>
       <c r="J178" s="6">
@@ -6159,7 +7356,7 @@
         <v>34.722766876220703</v>
       </c>
       <c r="L178" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-88.531020995367726</v>
       </c>
     </row>
@@ -6175,11 +7372,11 @@
         <v>62.490185185190057</v>
       </c>
       <c r="E179" s="11"/>
-      <c r="F179" s="30">
+      <c r="F179" s="29">
         <v>4</v>
       </c>
       <c r="G179" s="12"/>
-      <c r="H179" s="32">
+      <c r="H179" s="17">
         <v>4.2</v>
       </c>
       <c r="J179" s="6">
@@ -6189,7 +7386,7 @@
         <v>30.439870834350501</v>
       </c>
       <c r="L179" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-88.91021362268657</v>
       </c>
     </row>
@@ -6221,7 +7418,7 @@
         <v>31.220920562744102</v>
       </c>
       <c r="L180" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-89.899109363424941</v>
       </c>
     </row>
@@ -6237,11 +7434,11 @@
         <v>62.735324074077653</v>
       </c>
       <c r="E181" s="11"/>
-      <c r="F181" s="30">
+      <c r="F181" s="29">
         <v>3.9</v>
       </c>
       <c r="G181" s="12"/>
-      <c r="H181" s="32">
+      <c r="H181" s="17">
         <v>4.0999999999999996</v>
       </c>
       <c r="J181" s="6">
@@ -6251,7 +7448,7 @@
         <v>40.613540649413999</v>
       </c>
       <c r="L181" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-90.262296956017963</v>
       </c>
     </row>
@@ -6283,7 +7480,7 @@
         <v>41.926734924316399</v>
       </c>
       <c r="L182" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-90.329670173610793</v>
       </c>
     </row>
@@ -6299,11 +7496,11 @@
         <v>63.018657407410501</v>
       </c>
       <c r="E183" s="11"/>
-      <c r="F183" s="30">
+      <c r="F183" s="29">
         <v>3.9</v>
       </c>
       <c r="G183" s="12"/>
-      <c r="H183" s="32">
+      <c r="H183" s="17">
         <v>4.0999999999999996</v>
       </c>
       <c r="J183" s="6">
@@ -6313,7 +7510,7 @@
         <v>33.495403289794901</v>
       </c>
       <c r="L183" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-90.740077175927581</v>
       </c>
     </row>
@@ -6345,7 +7542,7 @@
         <v>30.674470901489201</v>
       </c>
       <c r="L184" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-90.972033229161752</v>
       </c>
     </row>
@@ -6361,11 +7558,11 @@
         <v>63.563090277777519</v>
       </c>
       <c r="E185" s="11"/>
-      <c r="F185" s="30">
+      <c r="F185" s="29">
         <v>4</v>
       </c>
       <c r="G185" s="12"/>
-      <c r="H185" s="32">
+      <c r="H185" s="17">
         <v>4.3</v>
       </c>
       <c r="J185" s="6">
@@ -6375,7 +7572,7 @@
         <v>41.880958557128899</v>
       </c>
       <c r="L185" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-91.349813379631087</v>
       </c>
     </row>
@@ -6407,7 +7604,7 @@
         <v>29.7217617034912</v>
       </c>
       <c r="L186" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-91.683133067126619</v>
       </c>
     </row>
@@ -6423,11 +7620,11 @@
         <v>63.90478009259823</v>
       </c>
       <c r="E187" s="11"/>
-      <c r="F187" s="31">
+      <c r="F187" s="30">
         <v>4.0999999999999996</v>
       </c>
       <c r="G187" s="12"/>
-      <c r="H187" s="33">
+      <c r="H187" s="18">
         <v>4.2</v>
       </c>
       <c r="J187" s="6">
@@ -6437,7 +7634,7 @@
         <v>29.6845703125</v>
       </c>
       <c r="L187" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-94.812281423612149</v>
       </c>
     </row>
@@ -6469,7 +7666,7 @@
         <v>38.422023773193303</v>
       </c>
       <c r="L188" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-94.615086400459404</v>
       </c>
     </row>
@@ -6485,11 +7682,11 @@
         <v>64.593657407407591</v>
       </c>
       <c r="E189" s="11"/>
-      <c r="F189" s="30">
+      <c r="F189" s="29">
         <v>4.0999999999999996</v>
       </c>
       <c r="G189" s="12"/>
-      <c r="H189" s="32">
+      <c r="H189" s="17">
         <v>4.2</v>
       </c>
       <c r="J189" s="6">
@@ -6499,7 +7696,7 @@
         <v>38.899810791015597</v>
       </c>
       <c r="L189" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-95.416461805558356</v>
       </c>
     </row>
@@ -6531,7 +7728,7 @@
         <v>35.366489410400298</v>
       </c>
       <c r="L190" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-93.94910704861104</v>
       </c>
     </row>
@@ -6547,11 +7744,11 @@
         <v>66.933946759265382</v>
       </c>
       <c r="E191" s="11"/>
-      <c r="F191" s="30">
+      <c r="F191" s="29">
         <v>4.2</v>
       </c>
       <c r="G191" s="12"/>
-      <c r="H191" s="32">
+      <c r="H191" s="17">
         <v>4.0999999999999996</v>
       </c>
       <c r="J191" s="6">
@@ -6561,7 +7758,7 @@
         <v>33.841583251953097</v>
       </c>
       <c r="L191" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-94.782425439814688</v>
       </c>
     </row>
@@ -6593,7 +7790,7 @@
         <v>39.718051910400298</v>
       </c>
       <c r="L192" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-94.626187210647913</v>
       </c>
     </row>
@@ -6608,10 +7805,10 @@
         <f>C193-$C$13</f>
         <v>67.536851851851679</v>
       </c>
-      <c r="F193" s="32">
+      <c r="F193" s="17">
         <v>4.7</v>
       </c>
-      <c r="H193" s="32">
+      <c r="H193" s="17">
         <v>5.2</v>
       </c>
       <c r="J193" s="6">
@@ -6621,7 +7818,7 @@
         <v>45.231174468994098</v>
       </c>
       <c r="L193" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-97.442025081021711</v>
       </c>
     </row>
@@ -6636,11 +7833,10 @@
         <f>C194-$C$2</f>
         <v>73.233263888883812</v>
       </c>
-      <c r="E194" s="29">
+      <c r="E194" s="9">
         <v>3.1</v>
       </c>
-      <c r="F194" s="29"/>
-      <c r="G194" s="29">
+      <c r="G194" s="9">
         <v>3.2</v>
       </c>
       <c r="I194" s="10">
@@ -6653,7 +7849,7 @@
         <v>35.260635375976499</v>
       </c>
       <c r="L194" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-98.065067650466517</v>
       </c>
     </row>
@@ -6668,10 +7864,10 @@
         <f>C195-$C$13</f>
         <v>67.849212962966703</v>
       </c>
-      <c r="F195" s="33">
-        <v>4</v>
-      </c>
-      <c r="H195" s="33">
+      <c r="F195" s="18">
+        <v>4</v>
+      </c>
+      <c r="H195" s="18">
         <v>4.3</v>
       </c>
       <c r="K195" s="2"/>
@@ -6687,11 +7883,10 @@
         <f>C196-$C$2</f>
         <v>73.940902777772862</v>
       </c>
-      <c r="E196" s="29">
+      <c r="E196" s="9">
         <v>3.3</v>
       </c>
-      <c r="F196" s="29"/>
-      <c r="G196" s="29">
+      <c r="G196" s="9">
         <v>2.9</v>
       </c>
       <c r="I196" s="10">
@@ -6704,7 +7899,7 @@
         <v>37.672447204589801</v>
       </c>
       <c r="L196" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-98.623392870373209</v>
       </c>
     </row>
@@ -6719,10 +7914,10 @@
         <f>C197-$C$13</f>
         <v>68.551307870373421</v>
       </c>
-      <c r="F197" s="32">
+      <c r="F197" s="17">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H197" s="32">
+      <c r="H197" s="17">
         <v>4.2</v>
       </c>
       <c r="J197" s="6">
@@ -6732,7 +7927,7 @@
         <v>29.412775039672798</v>
       </c>
       <c r="L197" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-99.820617708333884</v>
       </c>
     </row>
@@ -6750,11 +7945,10 @@
         <f>C198-$C$2</f>
         <v>74.295752314814308</v>
       </c>
-      <c r="E198" s="29">
+      <c r="E198" s="9">
         <v>3.1</v>
       </c>
-      <c r="F198" s="29"/>
-      <c r="G198" s="29">
+      <c r="G198" s="9">
         <v>3.5</v>
       </c>
       <c r="I198" s="10">
@@ -6775,10 +7969,10 @@
         <f>C199-$C$13</f>
         <v>68.912418981482915</v>
       </c>
-      <c r="F199" s="32">
-        <v>4</v>
-      </c>
-      <c r="H199" s="32">
+      <c r="F199" s="17">
+        <v>4</v>
+      </c>
+      <c r="H199" s="17">
         <v>4.2</v>
       </c>
     </row>
@@ -6796,11 +7990,10 @@
         <f>C200-$C$2</f>
         <v>74.529803240737238</v>
       </c>
-      <c r="E200" s="29">
+      <c r="E200" s="9">
         <v>3.6</v>
       </c>
-      <c r="F200" s="29"/>
-      <c r="G200" s="29">
+      <c r="G200" s="9">
         <v>4.4000000000000004</v>
       </c>
       <c r="I200" s="10">
@@ -6821,10 +8014,10 @@
         <f>C201-$C$13</f>
         <v>69.143657407410501</v>
       </c>
-      <c r="F201" s="32">
-        <v>3.5</v>
-      </c>
-      <c r="H201" s="32">
+      <c r="F201" s="17">
+        <v>4</v>
+      </c>
+      <c r="H201" s="17">
         <v>3.8</v>
       </c>
     </row>
@@ -6843,10 +8036,10 @@
         <v>69.435335648151522</v>
       </c>
       <c r="F202" s="19">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="G202" s="12"/>
-      <c r="H202" s="32">
+      <c r="H202" s="17">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -6864,7 +8057,7 @@
         <f>C203-$C$2</f>
         <v>75.570081018515339</v>
       </c>
-      <c r="E203" s="29">
+      <c r="E203" s="9">
         <v>3.1</v>
       </c>
       <c r="F203" s="11"/>
@@ -6890,10 +8083,10 @@
         <v>70.18741898148437</v>
       </c>
       <c r="F204" s="19">
-        <v>4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G204" s="12"/>
-      <c r="H204" s="32">
+      <c r="H204" s="17">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -6911,7 +8104,7 @@
         <f>C205-$C$2</f>
         <v>75.943680555552419</v>
       </c>
-      <c r="E205" s="29">
+      <c r="E205" s="9">
         <v>3.3</v>
       </c>
       <c r="F205" s="11"/>
@@ -6937,10 +8130,10 @@
         <v>70.559942129635601</v>
       </c>
       <c r="F206" s="24">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="G206" s="12"/>
-      <c r="H206" s="33">
+      <c r="H206" s="18">
         <v>4.3</v>
       </c>
     </row>
@@ -6958,7 +8151,7 @@
         <f>C207-$C$2</f>
         <v>76.315219907402934</v>
       </c>
-      <c r="E207" s="29">
+      <c r="E207" s="9">
         <v>3.3</v>
       </c>
       <c r="F207" s="11"/>
@@ -6984,10 +8177,10 @@
         <v>70.931238425931951</v>
       </c>
       <c r="F208" s="24">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="G208" s="12"/>
-      <c r="H208" s="33">
+      <c r="H208" s="18">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -7005,7 +8198,7 @@
         <f>C209-$C$2</f>
         <v>76.595069444440014</v>
       </c>
-      <c r="E209" s="29">
+      <c r="E209" s="9">
         <v>3.4</v>
       </c>
       <c r="F209" s="11"/>
@@ -7031,10 +8224,10 @@
         <v>71.202696759261016</v>
       </c>
       <c r="F210" s="19">
-        <v>3.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G210" s="12"/>
-      <c r="H210" s="32">
+      <c r="H210" s="17">
         <v>4</v>
       </c>
     </row>
@@ -7052,8 +8245,8 @@
         <f>C211-$C$2</f>
         <v>76.958958333329065</v>
       </c>
-      <c r="E211" s="29">
-        <v>3.3</v>
+      <c r="E211" s="9">
+        <v>3.8</v>
       </c>
       <c r="F211" s="11"/>
       <c r="G211" s="12">
@@ -7081,7 +8274,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="G212" s="12"/>
-      <c r="H212" s="32">
+      <c r="H212" s="17">
         <v>4.5</v>
       </c>
     </row>
@@ -7099,7 +8292,7 @@
         <f>C213-$C$2</f>
         <v>79.306203703701613</v>
       </c>
-      <c r="E213" s="29">
+      <c r="E213" s="9">
         <v>3.4</v>
       </c>
       <c r="F213" s="11"/>
@@ -7125,10 +8318,10 @@
         <v>73.923541666670644</v>
       </c>
       <c r="F214" s="19">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="G214" s="12"/>
-      <c r="H214" s="32">
+      <c r="H214" s="17">
         <v>4</v>
       </c>
     </row>
@@ -7146,7 +8339,7 @@
         <f>C215-$C$2</f>
         <v>80.011747685181035</v>
       </c>
-      <c r="E215" s="29">
+      <c r="E215" s="9">
         <v>3.5</v>
       </c>
       <c r="F215" s="11"/>
@@ -7172,10 +8365,10 @@
         <v>74.629178240742476</v>
       </c>
       <c r="F216" s="19">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="G216" s="12"/>
-      <c r="H216" s="32">
+      <c r="H216" s="17">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -7193,8 +8386,8 @@
         <f>C217-$C$2</f>
         <v>80.309675925920601</v>
       </c>
-      <c r="E217" s="29">
-        <v>3.4</v>
+      <c r="E217" s="9">
+        <v>3.9</v>
       </c>
       <c r="F217" s="11"/>
       <c r="G217" s="12">
@@ -7219,10 +8412,10 @@
         <v>74.924930555556784</v>
       </c>
       <c r="F218" s="19">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="G218" s="12"/>
-      <c r="H218" s="32">
+      <c r="H218" s="17">
         <v>3.7</v>
       </c>
     </row>
@@ -7240,8 +8433,8 @@
         <f>C219-$C$2</f>
         <v>80.577731481476803</v>
       </c>
-      <c r="E219" s="29">
-        <v>3.2</v>
+      <c r="E219" s="9">
+        <v>3.7</v>
       </c>
       <c r="F219" s="11"/>
       <c r="G219" s="12">
@@ -7266,10 +8459,10 @@
         <v>75.204791666670644</v>
       </c>
       <c r="F220" s="19">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="G220" s="12"/>
-      <c r="H220" s="32">
+      <c r="H220" s="17">
         <v>3.4</v>
       </c>
     </row>
@@ -7287,8 +8480,8 @@
         <f>C221-$C$2</f>
         <v>81.00689814814541</v>
       </c>
-      <c r="E221" s="29">
-        <v>3.3</v>
+      <c r="E221" s="9">
+        <v>3.8</v>
       </c>
       <c r="F221" s="11"/>
       <c r="G221" s="12">
@@ -7313,10 +8506,10 @@
         <v>75.644375000003492</v>
       </c>
       <c r="F222" s="19">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="G222" s="12"/>
-      <c r="H222" s="32">
+      <c r="H222" s="17">
         <v>4</v>
       </c>
     </row>
@@ -7334,8 +8527,8 @@
         <f>C223-$C$2</f>
         <v>81.317314814812562</v>
       </c>
-      <c r="E223" s="29">
-        <v>3.6</v>
+      <c r="E223" s="9">
+        <v>4.0999999999999996</v>
       </c>
       <c r="F223" s="11"/>
       <c r="G223" s="12">
@@ -7360,7 +8553,7 @@
         <v>75.932581018518249</v>
       </c>
       <c r="F224" s="19">
-        <v>4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H224" s="20">
         <v>4.2</v>
@@ -7380,11 +8573,11 @@
         <f>C225-$C$2</f>
         <v>81.579814814809652</v>
       </c>
-      <c r="E225" s="29">
-        <v>3.5</v>
+      <c r="E225" s="9">
+        <v>4</v>
       </c>
       <c r="F225" s="11"/>
-      <c r="G225" s="29">
+      <c r="G225" s="9">
         <v>4.2</v>
       </c>
       <c r="H225" s="12"/>
@@ -7407,7 +8600,7 @@
         <v>76.193692129629198</v>
       </c>
       <c r="F226" s="19">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="H226" s="20">
         <v>3.4</v>
@@ -7428,7 +8621,7 @@
         <v>76.485451388893125</v>
       </c>
       <c r="F227" s="19">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="H227" s="20">
         <v>4</v>
@@ -7448,11 +8641,11 @@
         <f>C228-$C$2</f>
         <v>82.097175925926422</v>
       </c>
-      <c r="E228" s="29">
-        <v>3.7</v>
+      <c r="E228" s="9">
+        <v>4.2</v>
       </c>
       <c r="F228" s="11"/>
-      <c r="G228" s="29">
+      <c r="G228" s="9">
         <v>3.5</v>
       </c>
       <c r="H228" s="12"/>
@@ -7475,7 +8668,7 @@
         <v>76.710347222222481</v>
       </c>
       <c r="F229" s="24">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="H229" s="25">
         <v>3.7</v>
@@ -7495,11 +8688,11 @@
         <f>C230-$C$2</f>
         <v>82.328506944439141</v>
       </c>
-      <c r="E230" s="29">
-        <v>3.5</v>
+      <c r="E230" s="9">
+        <v>4</v>
       </c>
       <c r="F230" s="11"/>
-      <c r="G230" s="29">
+      <c r="G230" s="9">
         <v>4</v>
       </c>
       <c r="H230" s="12"/>
@@ -7522,7 +8715,7 @@
         <v>76.94160879629635</v>
       </c>
       <c r="F231" s="19">
-        <v>3.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H231" s="20">
         <v>3.8</v>
@@ -7542,11 +8735,11 @@
         <f>C232-$C$2</f>
         <v>83.279120370367309</v>
       </c>
-      <c r="E232" s="29">
-        <v>3.6</v>
+      <c r="E232" s="9">
+        <v>4.3</v>
       </c>
       <c r="F232" s="11"/>
-      <c r="G232" s="29">
+      <c r="G232" s="9">
         <v>3.1</v>
       </c>
       <c r="H232" s="12"/>
@@ -7569,7 +8762,7 @@
         <v>77.89646990741312</v>
       </c>
       <c r="F233" s="19">
-        <v>4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H233" s="20">
         <v>3.6</v>
@@ -7589,11 +8782,11 @@
         <f>C234-$C$2</f>
         <v>83.570092592592118</v>
       </c>
-      <c r="E234" s="29">
-        <v>3.7</v>
+      <c r="E234" s="9">
+        <v>4.2</v>
       </c>
       <c r="F234" s="11"/>
-      <c r="G234" s="29">
+      <c r="G234" s="9">
         <v>3.3</v>
       </c>
       <c r="H234" s="12"/>
@@ -7616,7 +8809,7 @@
         <v>78.184664351858373</v>
       </c>
       <c r="F235" s="19">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="H235" s="20">
         <v>3.8</v>
@@ -7637,7 +8830,7 @@
         <v>78.476331018522615</v>
       </c>
       <c r="F236" s="19">
-        <v>3.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H236" s="20">
         <v>3.8</v>
@@ -7657,11 +8850,11 @@
         <f>C237-$C$2</f>
         <v>84.088854166664532</v>
       </c>
-      <c r="E237" s="29">
-        <v>3.3</v>
+      <c r="E237" s="9">
+        <v>4.5</v>
       </c>
       <c r="F237" s="11"/>
-      <c r="G237" s="29">
+      <c r="G237" s="9">
         <v>4.0999999999999996</v>
       </c>
       <c r="H237" s="12"/>
@@ -7684,7 +8877,7 @@
         <v>78.742997685185401</v>
       </c>
       <c r="F238" s="24">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="H238" s="25">
         <v>3.8</v>
@@ -7704,11 +8897,11 @@
         <f>C239-$C$2</f>
         <v>94.343043981476512</v>
       </c>
-      <c r="E239" s="29">
+      <c r="E239" s="9">
         <v>3.9</v>
       </c>
       <c r="F239" s="11"/>
-      <c r="G239" s="29">
+      <c r="G239" s="9">
         <v>3.3</v>
       </c>
       <c r="H239" s="12"/>
@@ -7731,7 +8924,7 @@
         <v>88.959699074075615</v>
       </c>
       <c r="F240" s="19">
-        <v>4.4000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="H240" s="20">
         <v>4.3</v>
@@ -7751,11 +8944,11 @@
         <f>C241-$C$2</f>
         <v>94.965266203704232</v>
       </c>
-      <c r="E241" s="29">
+      <c r="E241" s="9">
         <v>3.2</v>
       </c>
       <c r="F241" s="11"/>
-      <c r="G241" s="29">
+      <c r="G241" s="9">
         <v>3.7</v>
       </c>
       <c r="H241" s="12"/>
@@ -7798,11 +8991,11 @@
         <f>C243-$C$2</f>
         <v>95.386793981480878</v>
       </c>
-      <c r="E243" s="29">
+      <c r="E243" s="9">
         <v>3.2</v>
       </c>
       <c r="F243" s="11"/>
-      <c r="G243" s="29">
+      <c r="G243" s="9">
         <v>3.1</v>
       </c>
       <c r="H243" s="12"/>
@@ -7845,11 +9038,11 @@
         <f>C245-$C$2</f>
         <v>95.996504629627452</v>
       </c>
-      <c r="E245" s="29">
+      <c r="E245" s="9">
         <v>3</v>
       </c>
       <c r="F245" s="11"/>
-      <c r="G245" s="29">
+      <c r="G245" s="9">
         <v>3.4</v>
       </c>
       <c r="H245" s="12"/>
@@ -7871,11 +9064,11 @@
         <f>C246-$C$2</f>
         <v>95.996504629627452</v>
       </c>
-      <c r="E246" s="29">
+      <c r="E246" s="9">
         <v>3</v>
       </c>
       <c r="F246" s="11"/>
-      <c r="G246" s="29">
+      <c r="G246" s="9">
         <v>3.4</v>
       </c>
       <c r="H246" s="12"/>
@@ -7918,11 +9111,11 @@
         <f>C248-$C$2</f>
         <v>96.336793981477967</v>
       </c>
-      <c r="E248" s="29">
+      <c r="E248" s="9">
         <v>3.1</v>
       </c>
       <c r="F248" s="11"/>
-      <c r="G248" s="29">
+      <c r="G248" s="9">
         <v>3.3</v>
       </c>
       <c r="H248" s="12"/>
@@ -7965,11 +9158,11 @@
         <f>C250-$C$2</f>
         <v>96.600682870368473</v>
       </c>
-      <c r="E250" s="29">
+      <c r="E250" s="9">
         <v>3.3</v>
       </c>
       <c r="F250" s="11"/>
-      <c r="G250" s="29">
+      <c r="G250" s="9">
         <v>4.0999999999999996</v>
       </c>
       <c r="H250" s="12"/>
@@ -8012,11 +9205,11 @@
         <f>C252-$C$2</f>
         <v>96.972905092588917</v>
       </c>
-      <c r="E252" s="29">
+      <c r="E252" s="9">
         <v>3.1</v>
       </c>
       <c r="F252" s="11"/>
-      <c r="G252" s="29">
+      <c r="G252" s="9">
         <v>3.4</v>
       </c>
       <c r="H252" s="12"/>
@@ -8059,11 +9252,11 @@
         <f>C254-$C$2</f>
         <v>97.345127314809361</v>
       </c>
-      <c r="E254" s="29">
+      <c r="E254" s="9">
         <v>3.2</v>
       </c>
       <c r="F254" s="11"/>
-      <c r="G254" s="29">
+      <c r="G254" s="9">
         <v>3.9</v>
       </c>
       <c r="H254" s="12"/>
@@ -8106,11 +9299,11 @@
         <f>C256-$C$2</f>
         <v>97.595821759256069</v>
       </c>
-      <c r="E256" s="29">
+      <c r="E256" s="9">
         <v>3.3</v>
       </c>
       <c r="F256" s="11"/>
-      <c r="G256" s="29">
+      <c r="G256" s="9">
         <v>3.7</v>
       </c>
       <c r="H256" s="12"/>
@@ -8153,11 +9346,11 @@
         <f>C258-$C$2</f>
         <v>97.990277777775191</v>
       </c>
-      <c r="E258" s="29">
+      <c r="E258" s="9">
         <v>3.4</v>
       </c>
       <c r="F258" s="11"/>
-      <c r="G258" s="29">
+      <c r="G258" s="9">
         <v>3.6</v>
       </c>
       <c r="H258" s="12"/>
@@ -8200,11 +9393,11 @@
         <f>C260-$C$2</f>
         <v>99.641678240739566</v>
       </c>
-      <c r="E260" s="29">
+      <c r="E260" s="9">
         <v>3.3</v>
       </c>
       <c r="F260" s="11"/>
-      <c r="G260" s="29">
+      <c r="G260" s="9">
         <v>3.8</v>
       </c>
       <c r="H260" s="12"/>
@@ -8268,11 +9461,11 @@
         <f>C263-$C$2</f>
         <v>100.3166666666657</v>
       </c>
-      <c r="E263" s="29">
+      <c r="E263" s="9">
         <v>3.2</v>
       </c>
       <c r="F263" s="11"/>
-      <c r="G263" s="29">
+      <c r="G263" s="9">
         <v>3.7</v>
       </c>
       <c r="H263" s="12"/>
@@ -8315,11 +9508,11 @@
         <f>C265-$C$2</f>
         <v>100.57361111111095</v>
       </c>
-      <c r="E265" s="29">
+      <c r="E265" s="9">
         <v>3.4</v>
       </c>
       <c r="F265" s="11"/>
-      <c r="G265" s="29">
+      <c r="G265" s="9">
         <v>4</v>
       </c>
       <c r="H265" s="12"/>
@@ -8362,11 +9555,11 @@
         <f>C267-$C$2</f>
         <v>100.95347222222335</v>
       </c>
-      <c r="E267" s="29">
+      <c r="E267" s="9">
         <v>2.7</v>
       </c>
       <c r="F267" s="11"/>
-      <c r="G267" s="29">
+      <c r="G267" s="9">
         <v>3</v>
       </c>
       <c r="H267" s="12"/>
@@ -8409,11 +9602,11 @@
         <f>C269-$C$2</f>
         <v>101.33124999999563</v>
       </c>
-      <c r="E269" s="29">
+      <c r="E269" s="9">
         <v>3</v>
       </c>
       <c r="F269" s="11"/>
-      <c r="G269" s="29">
+      <c r="G269" s="9">
         <v>3.4</v>
       </c>
       <c r="H269" s="12"/>
@@ -8435,11 +9628,11 @@
         <f>C270-$C$2</f>
         <v>101.33124999999563</v>
       </c>
-      <c r="E270" s="29">
+      <c r="E270" s="9">
         <v>3</v>
       </c>
       <c r="F270" s="11"/>
-      <c r="G270" s="29">
+      <c r="G270" s="9">
         <v>3.4</v>
       </c>
       <c r="H270" s="12"/>
@@ -8482,11 +9675,11 @@
         <f>C272-$C$2</f>
         <v>101.58474537036818</v>
       </c>
-      <c r="E272" s="29">
+      <c r="E272" s="9">
         <v>3.4</v>
       </c>
       <c r="F272" s="11"/>
-      <c r="G272" s="29">
+      <c r="G272" s="9">
         <v>4.3</v>
       </c>
       <c r="H272" s="12"/>
@@ -8529,11 +9722,11 @@
         <f>C274-$C$2</f>
         <v>101.92708333332848</v>
       </c>
-      <c r="E274" s="29">
+      <c r="E274" s="9">
         <v>2.8</v>
       </c>
       <c r="F274" s="11"/>
-      <c r="G274" s="29">
+      <c r="G274" s="9">
         <v>3</v>
       </c>
       <c r="H274" s="12"/>
@@ -8576,11 +9769,11 @@
         <f>C276-$C$2</f>
         <v>102.30277777777519</v>
       </c>
-      <c r="E276" s="29">
+      <c r="E276" s="9">
         <v>2.7</v>
       </c>
       <c r="F276" s="11"/>
-      <c r="G276" s="29">
+      <c r="G276" s="9">
         <v>2.9</v>
       </c>
       <c r="H276" s="12"/>
@@ -8623,11 +9816,11 @@
         <f>C278-$C$2</f>
         <v>102.58334490740526</v>
       </c>
-      <c r="E278" s="29">
+      <c r="E278" s="9">
         <v>3.1</v>
       </c>
       <c r="F278" s="11"/>
-      <c r="G278" s="29">
+      <c r="G278" s="9">
         <v>3.7</v>
       </c>
       <c r="H278" s="12"/>
@@ -8670,11 +9863,11 @@
         <f>C280-$C$2</f>
         <v>102.96459490740381</v>
       </c>
-      <c r="E280" s="29">
+      <c r="E280" s="9">
         <v>2.9</v>
       </c>
       <c r="F280" s="11"/>
-      <c r="G280" s="29">
+      <c r="G280" s="9">
         <v>3.1</v>
       </c>
       <c r="H280" s="12"/>
@@ -8717,11 +9910,11 @@
         <f>C282-$C$2</f>
         <v>103.29862268518627</v>
       </c>
-      <c r="E282" s="29">
+      <c r="E282" s="9">
         <v>3.3</v>
       </c>
       <c r="F282" s="11"/>
-      <c r="G282" s="29">
+      <c r="G282" s="9">
         <v>3.3</v>
       </c>
       <c r="H282" s="12"/>
@@ -8764,11 +9957,11 @@
         <f>C284-$C$2</f>
         <v>103.53334490740235</v>
       </c>
-      <c r="E284" s="29">
+      <c r="E284" s="9">
         <v>3.1</v>
       </c>
       <c r="F284" s="11"/>
-      <c r="G284" s="29">
+      <c r="G284" s="9">
         <v>3.7</v>
       </c>
       <c r="H284" s="12"/>
@@ -8832,11 +10025,11 @@
         <f>C287-$C$2</f>
         <v>104.06320601851621</v>
       </c>
-      <c r="E287" s="29">
+      <c r="E287" s="9">
         <v>3.3</v>
       </c>
       <c r="F287" s="11"/>
-      <c r="G287" s="29">
+      <c r="G287" s="9">
         <v>3.3</v>
       </c>
       <c r="H287" s="12"/>
@@ -8879,11 +10072,11 @@
         <f>C289-$C$2</f>
         <v>104.31042824073666</v>
       </c>
-      <c r="E289" s="29">
+      <c r="E289" s="9">
         <v>3</v>
       </c>
       <c r="F289" s="11"/>
-      <c r="G289" s="29">
+      <c r="G289" s="9">
         <v>3.4</v>
       </c>
       <c r="H289" s="12"/>
@@ -8905,11 +10098,11 @@
         <f>C290-$C$2</f>
         <v>104.42709490740526</v>
       </c>
-      <c r="E290" s="29">
+      <c r="E290" s="9">
         <v>2.9</v>
       </c>
       <c r="F290" s="11"/>
-      <c r="G290" s="29">
+      <c r="G290" s="9">
         <v>3.4</v>
       </c>
       <c r="H290" s="12"/>
@@ -8952,11 +10145,11 @@
         <f>C292-$C$2</f>
         <v>105.00974537037109</v>
       </c>
-      <c r="E292" s="29">
+      <c r="E292" s="9">
         <v>3.3</v>
       </c>
       <c r="F292" s="11"/>
-      <c r="G292" s="29">
+      <c r="G292" s="9">
         <v>3.2</v>
       </c>
       <c r="H292" s="12"/>
@@ -8999,11 +10192,11 @@
         <f>C294-$C$2</f>
         <v>105.47432870369812</v>
       </c>
-      <c r="E294" s="29">
+      <c r="E294" s="9">
         <v>3</v>
       </c>
       <c r="F294" s="11"/>
-      <c r="G294" s="29">
+      <c r="G294" s="9">
         <v>3.1</v>
       </c>
       <c r="H294" s="12"/>
@@ -9046,11 +10239,11 @@
         <f>C296-$C$2</f>
         <v>105.7812615740695</v>
       </c>
-      <c r="E296" s="29">
+      <c r="E296" s="9">
         <v>3.2</v>
       </c>
       <c r="F296" s="11"/>
-      <c r="G296" s="29">
+      <c r="G296" s="9">
         <v>3.1</v>
       </c>
       <c r="H296" s="12"/>
@@ -9093,11 +10286,11 @@
         <f>C298-$C$2</f>
         <v>106.36391203703533</v>
       </c>
-      <c r="E298" s="29">
+      <c r="E298" s="9">
         <v>2.7</v>
       </c>
       <c r="F298" s="11"/>
-      <c r="G298" s="29">
+      <c r="G298" s="9">
         <v>3</v>
       </c>
       <c r="H298" s="12"/>
@@ -9161,11 +10354,11 @@
         <f>C301-$C$2</f>
         <v>107.29379629629693</v>
       </c>
-      <c r="E301" s="29">
+      <c r="E301" s="9">
         <v>3</v>
       </c>
       <c r="F301" s="11"/>
-      <c r="G301" s="29">
+      <c r="G301" s="9">
         <v>3.3</v>
       </c>
       <c r="H301" s="12"/>
@@ -9208,11 +10401,11 @@
         <f>C303-$C$2</f>
         <v>108.25766203703824</v>
       </c>
-      <c r="E303" s="29">
+      <c r="E303" s="9">
         <v>2.8</v>
       </c>
       <c r="F303" s="11"/>
-      <c r="G303" s="29">
+      <c r="G303" s="9">
         <v>3.2</v>
       </c>
       <c r="H303" s="12"/>
@@ -9255,11 +10448,11 @@
         <f>C305-$C$2</f>
         <v>108.99932870369958</v>
       </c>
-      <c r="E305" s="29">
+      <c r="E305" s="9">
         <v>3.1</v>
       </c>
       <c r="F305" s="11"/>
-      <c r="G305" s="29">
+      <c r="G305" s="9">
         <v>3.2</v>
       </c>
       <c r="H305" s="12"/>
@@ -9302,11 +10495,11 @@
         <f>C307-$C$2</f>
         <v>109.2604513888873</v>
       </c>
-      <c r="E307" s="29">
+      <c r="E307" s="9">
         <v>3.1</v>
       </c>
       <c r="F307" s="11"/>
-      <c r="G307" s="29">
+      <c r="G307" s="9">
         <v>3.3</v>
       </c>
       <c r="H307" s="12"/>
@@ -9349,11 +10542,11 @@
         <f>C309-$C$2</f>
         <v>109.97295138888876</v>
       </c>
-      <c r="E309" s="29">
+      <c r="E309" s="9">
         <v>3.1</v>
       </c>
       <c r="F309" s="11"/>
-      <c r="G309" s="29">
+      <c r="G309" s="9">
         <v>3.4</v>
       </c>
       <c r="H309" s="12"/>
@@ -9396,11 +10589,11 @@
         <f>C311-$C$2</f>
         <v>110.5861458333311</v>
       </c>
-      <c r="E311" s="29">
+      <c r="E311" s="9">
         <v>2.8</v>
       </c>
       <c r="F311" s="11"/>
-      <c r="G311" s="29">
+      <c r="G311" s="9">
         <v>3.4</v>
       </c>
       <c r="H311" s="12"/>
@@ -9443,11 +10636,11 @@
         <f>C313-$C$2</f>
         <v>110.94724537037109</v>
       </c>
-      <c r="E313" s="29">
+      <c r="E313" s="9">
         <v>3</v>
       </c>
       <c r="F313" s="11"/>
-      <c r="G313" s="29">
+      <c r="G313" s="9">
         <v>3.2</v>
       </c>
       <c r="H313" s="12"/>
@@ -9490,11 +10683,11 @@
         <f>C315-$C$2</f>
         <v>111.30627314814774</v>
       </c>
-      <c r="E315" s="29">
+      <c r="E315" s="9">
         <v>3.1</v>
       </c>
       <c r="F315" s="11"/>
-      <c r="G315" s="29">
+      <c r="G315" s="9">
         <v>3.4</v>
       </c>
       <c r="H315" s="12"/>
@@ -9516,11 +10709,11 @@
         <f>C316-$C$2</f>
         <v>111.31530092592584</v>
       </c>
-      <c r="E316" s="29">
+      <c r="E316" s="9">
         <v>3.4</v>
       </c>
       <c r="F316" s="11"/>
-      <c r="G316" s="29">
+      <c r="G316" s="9">
         <v>3.8</v>
       </c>
       <c r="H316" s="12"/>
@@ -9563,11 +10756,11 @@
         <f>C318-$C$2</f>
         <v>111.56043981481344</v>
       </c>
-      <c r="E318" s="29">
+      <c r="E318" s="9">
         <v>3.2</v>
       </c>
       <c r="F318" s="11"/>
-      <c r="G318" s="29">
+      <c r="G318" s="9">
         <v>3.1</v>
       </c>
       <c r="H318" s="12"/>
@@ -9631,11 +10824,11 @@
         <f>C321-$C$2</f>
         <v>112.07924768518569</v>
       </c>
-      <c r="E321" s="29">
+      <c r="E321" s="9">
         <v>3.1</v>
       </c>
       <c r="F321" s="11"/>
-      <c r="G321" s="29">
+      <c r="G321" s="9">
         <v>3.2</v>
       </c>
       <c r="H321" s="12"/>
@@ -9678,11 +10871,11 @@
         <f>C323-$C$2</f>
         <v>113.49032407407503</v>
       </c>
-      <c r="E323" s="29">
+      <c r="E323" s="9">
         <v>2.8</v>
       </c>
       <c r="F323" s="11"/>
-      <c r="G323" s="29">
+      <c r="G323" s="9">
         <v>3.5</v>
       </c>
       <c r="H323" s="12"/>
@@ -9746,11 +10939,11 @@
         <f>C326-$C$2</f>
         <v>114.27920138889021</v>
       </c>
-      <c r="E326" s="29">
+      <c r="E326" s="9">
         <v>3</v>
       </c>
       <c r="F326" s="11"/>
-      <c r="G326" s="29">
+      <c r="G326" s="9">
         <v>3.5</v>
       </c>
       <c r="H326" s="12"/>
@@ -9793,11 +10986,11 @@
         <f>C328-$C$2</f>
         <v>114.58267361111211</v>
       </c>
-      <c r="E328" s="29">
+      <c r="E328" s="9">
         <v>3.1</v>
       </c>
       <c r="F328" s="11"/>
-      <c r="G328" s="29">
+      <c r="G328" s="9">
         <v>3.6</v>
       </c>
       <c r="H328" s="12"/>
@@ -9840,11 +11033,11 @@
         <f>C330-$C$2</f>
         <v>114.97295138888876</v>
       </c>
-      <c r="E330" s="29">
+      <c r="E330" s="9">
         <v>3.3</v>
       </c>
       <c r="F330" s="11"/>
-      <c r="G330" s="29">
+      <c r="G330" s="9">
         <v>3.4</v>
       </c>
       <c r="H330" s="12"/>
@@ -9887,11 +11080,11 @@
         <f>C332-$C$2</f>
         <v>115.30143518518162</v>
       </c>
-      <c r="E332" s="29">
+      <c r="E332" s="9">
         <v>3.5</v>
       </c>
       <c r="F332" s="11"/>
-      <c r="G332" s="29">
+      <c r="G332" s="9">
         <v>4.2</v>
       </c>
       <c r="H332" s="12"/>
@@ -9934,11 +11127,11 @@
         <f>C334-$C$2</f>
         <v>115.95490740740206</v>
       </c>
-      <c r="E334" s="29">
+      <c r="E334" s="9">
         <v>3</v>
       </c>
       <c r="F334" s="11"/>
-      <c r="G334" s="29">
+      <c r="G334" s="9">
         <v>3.3</v>
       </c>
       <c r="H334" s="12"/>
@@ -9981,11 +11174,11 @@
         <f>C336-$C$2</f>
         <v>116.295868055553</v>
       </c>
-      <c r="E336" s="29">
+      <c r="E336" s="9">
         <v>2.9</v>
       </c>
       <c r="F336" s="11"/>
-      <c r="G336" s="29">
+      <c r="G336" s="9">
         <v>3.5</v>
       </c>
       <c r="H336" s="12"/>
@@ -10028,11 +11221,11 @@
         <f>C338-$C$2</f>
         <v>116.52435185184731</v>
       </c>
-      <c r="E338" s="29">
+      <c r="E338" s="9">
         <v>3.1</v>
       </c>
       <c r="F338" s="11"/>
-      <c r="G338" s="29">
+      <c r="G338" s="9">
         <v>3.4</v>
       </c>
       <c r="H338" s="12"/>
@@ -10096,11 +11289,11 @@
         <f>C341-$C$2</f>
         <v>117.28893518518453</v>
       </c>
-      <c r="E341" s="29">
+      <c r="E341" s="9">
         <v>2.8</v>
       </c>
       <c r="F341" s="11"/>
-      <c r="G341" s="29">
+      <c r="G341" s="9">
         <v>3.3</v>
       </c>
       <c r="H341" s="12"/>
@@ -10143,11 +11336,11 @@
         <f>C343-$C$2</f>
         <v>117.5292245370365</v>
       </c>
-      <c r="E343" s="29">
+      <c r="E343" s="9">
         <v>3.3</v>
       </c>
       <c r="F343" s="11"/>
-      <c r="G343" s="29">
+      <c r="G343" s="9">
         <v>3.7</v>
       </c>
       <c r="H343" s="12"/>
@@ -10169,11 +11362,11 @@
         <f>C344-$C$2</f>
         <v>118.28269675925549</v>
       </c>
-      <c r="E344" s="29">
+      <c r="E344" s="9">
         <v>3.2</v>
       </c>
       <c r="F344" s="11"/>
-      <c r="G344" s="29">
+      <c r="G344" s="9">
         <v>3.3</v>
       </c>
       <c r="H344" s="12"/>
@@ -10216,11 +11409,11 @@
         <f>C346-$C$2</f>
         <v>118.58480324073753</v>
       </c>
-      <c r="E346" s="29">
+      <c r="E346" s="9">
         <v>3.1</v>
       </c>
       <c r="F346" s="11"/>
-      <c r="G346" s="29">
+      <c r="G346" s="9">
         <v>3.4</v>
       </c>
       <c r="H346" s="12"/>
@@ -10263,11 +11456,11 @@
         <f>C348-$C$2</f>
         <v>118.94103009258833</v>
       </c>
-      <c r="E348" s="29">
+      <c r="E348" s="9">
         <v>3.1</v>
       </c>
       <c r="F348" s="11"/>
-      <c r="G348" s="29">
+      <c r="G348" s="9">
         <v>3.3</v>
       </c>
       <c r="H348" s="12"/>
@@ -10310,11 +11503,11 @@
         <f>C350-$C$2</f>
         <v>121.28616898148175</v>
       </c>
-      <c r="E350" s="29">
+      <c r="E350" s="9">
         <v>3.1</v>
       </c>
       <c r="F350" s="11"/>
-      <c r="G350" s="29">
+      <c r="G350" s="9">
         <v>3.8</v>
       </c>
       <c r="H350" s="12"/>
@@ -10357,11 +11550,11 @@
         <f>C352-$C$2</f>
         <v>121.57644675925985</v>
       </c>
-      <c r="E352" s="29">
+      <c r="E352" s="9">
         <v>3.1</v>
       </c>
       <c r="F352" s="11"/>
-      <c r="G352" s="29">
+      <c r="G352" s="9">
         <v>3.4</v>
       </c>
       <c r="H352" s="12"/>
@@ -10404,11 +11597,11 @@
         <f>C354-$C$2</f>
         <v>121.9757523148146</v>
       </c>
-      <c r="E354" s="29">
+      <c r="E354" s="9">
         <v>2.9</v>
       </c>
       <c r="F354" s="11"/>
-      <c r="G354" s="29">
+      <c r="G354" s="9">
         <v>3.4</v>
       </c>
       <c r="H354" s="12"/>
@@ -10451,11 +11644,11 @@
         <f>C356-$C$2</f>
         <v>122.28269675925549</v>
       </c>
-      <c r="E356" s="29">
+      <c r="E356" s="9">
         <v>3.4</v>
       </c>
       <c r="F356" s="11"/>
-      <c r="G356" s="29">
+      <c r="G356" s="9">
         <v>4.3</v>
       </c>
       <c r="H356" s="12"/>
@@ -10498,11 +11691,11 @@
         <f>C358-$C$2</f>
         <v>122.57991898147884</v>
       </c>
-      <c r="E358" s="29">
+      <c r="E358" s="9">
         <v>3.1</v>
       </c>
       <c r="F358" s="11"/>
-      <c r="G358" s="29">
+      <c r="G358" s="9">
         <v>3.8</v>
       </c>
       <c r="H358" s="12"/>
@@ -10545,11 +11738,11 @@
         <f>C360-$C$2</f>
         <v>122.9583912037051</v>
       </c>
-      <c r="E360" s="29">
+      <c r="E360" s="9">
         <v>3.3</v>
       </c>
       <c r="F360" s="11"/>
-      <c r="G360" s="29">
+      <c r="G360" s="9">
         <v>4</v>
       </c>
       <c r="H360" s="12"/>
@@ -10592,11 +11785,11 @@
         <f>C362-$C$2</f>
         <v>123.2938425925895</v>
       </c>
-      <c r="E362" s="29">
+      <c r="E362" s="9">
         <v>3</v>
       </c>
       <c r="F362" s="11"/>
-      <c r="G362" s="29">
+      <c r="G362" s="9">
         <v>3.6</v>
       </c>
       <c r="H362" s="12"/>
@@ -10639,11 +11832,11 @@
         <f>C364-$C$2</f>
         <v>123.96326388888701</v>
       </c>
-      <c r="E364" s="29">
+      <c r="E364" s="9">
         <v>3.1</v>
       </c>
       <c r="F364" s="11"/>
-      <c r="G364" s="29">
+      <c r="G364" s="9">
         <v>3.5</v>
       </c>
       <c r="H364" s="12"/>
@@ -10686,11 +11879,11 @@
         <f>C366-$C$2</f>
         <v>124.29034722221695</v>
       </c>
-      <c r="E366" s="29">
+      <c r="E366" s="9">
         <v>2.9</v>
       </c>
       <c r="F366" s="11"/>
-      <c r="G366" s="29">
+      <c r="G366" s="9">
         <v>3.5</v>
       </c>
       <c r="H366" s="12"/>
@@ -10733,11 +11926,11 @@
         <f>C368-$C$2</f>
         <v>124.59034722221986</v>
       </c>
-      <c r="E368" s="29">
+      <c r="E368" s="9">
         <v>3</v>
       </c>
       <c r="F368" s="11"/>
-      <c r="G368" s="29">
+      <c r="G368" s="9">
         <v>3.3</v>
       </c>
       <c r="H368" s="12"/>
@@ -10780,11 +11973,11 @@
         <f>C370-$C$2</f>
         <v>124.98686342592555</v>
       </c>
-      <c r="E370" s="29">
+      <c r="E370" s="9">
         <v>3.2</v>
       </c>
       <c r="F370" s="11"/>
-      <c r="G370" s="29">
+      <c r="G370" s="9">
         <v>3.6</v>
       </c>
       <c r="H370" s="12"/>
@@ -10827,11 +12020,11 @@
         <f>C372-$C$2</f>
         <v>125.32437499999651</v>
       </c>
-      <c r="E372" s="29">
+      <c r="E372" s="9">
         <v>3</v>
       </c>
       <c r="F372" s="11"/>
-      <c r="G372" s="29">
+      <c r="G372" s="9">
         <v>3.5</v>
       </c>
       <c r="H372" s="12"/>
@@ -10874,11 +12067,11 @@
         <f>C374-$C$2</f>
         <v>125.5785300925927</v>
       </c>
-      <c r="E374" s="29">
+      <c r="E374" s="9">
         <v>3.5</v>
       </c>
       <c r="F374" s="11"/>
-      <c r="G374" s="29">
+      <c r="G374" s="9">
         <v>4.0999999999999996</v>
       </c>
       <c r="H374" s="12"/>
@@ -10900,11 +12093,11 @@
         <f>C375-$C$2</f>
         <v>125.95701388888847</v>
       </c>
-      <c r="E375" s="29">
+      <c r="E375" s="9">
         <v>3.4</v>
       </c>
       <c r="F375" s="11"/>
-      <c r="G375" s="29">
+      <c r="G375" s="9">
         <v>3.3</v>
       </c>
       <c r="H375" s="12"/>
@@ -10926,10 +12119,10 @@
         <f>C376-$C$13</f>
         <v>120.56395833333954</v>
       </c>
-      <c r="F376" s="32">
+      <c r="F376" s="17">
         <v>3.9</v>
       </c>
-      <c r="H376" s="32">
+      <c r="H376" s="17">
         <v>3.8</v>
       </c>
     </row>
@@ -10947,11 +12140,10 @@
         <f>C377-$C$2</f>
         <v>128.30216435185139</v>
       </c>
-      <c r="E377" s="29">
+      <c r="E377" s="9">
         <v>3.2</v>
       </c>
-      <c r="F377" s="29"/>
-      <c r="G377" s="29">
+      <c r="G377" s="9">
         <v>3.5</v>
       </c>
       <c r="I377" s="10">
@@ -10972,10 +12164,10 @@
         <f>C378-$C$13</f>
         <v>122.91881944445049</v>
       </c>
-      <c r="F378" s="32">
+      <c r="F378" s="17">
         <v>3.5</v>
       </c>
-      <c r="H378" s="32">
+      <c r="H378" s="17">
         <v>3.6</v>
       </c>
     </row>
@@ -10993,11 +12185,10 @@
         <f>C379-$C$2</f>
         <v>128.98067129629635</v>
       </c>
-      <c r="E379" s="29">
+      <c r="E379" s="9">
         <v>3.2</v>
       </c>
-      <c r="F379" s="29"/>
-      <c r="G379" s="29">
+      <c r="G379" s="9">
         <v>3.7</v>
       </c>
       <c r="I379" s="10">
@@ -11018,10 +12209,10 @@
         <f>C380-$C$13</f>
         <v>123.57090277777752</v>
       </c>
-      <c r="F380" s="32">
+      <c r="F380" s="17">
         <v>3.9</v>
       </c>
-      <c r="H380" s="32">
+      <c r="H380" s="17">
         <v>4</v>
       </c>
     </row>
@@ -11039,11 +12230,10 @@
         <f>C381-$C$2</f>
         <v>129.33758101851708</v>
       </c>
-      <c r="E381" s="29">
+      <c r="E381" s="9">
         <v>3.1</v>
       </c>
-      <c r="F381" s="29"/>
-      <c r="G381" s="29">
+      <c r="G381" s="9">
         <v>3.4</v>
       </c>
       <c r="I381" s="10">
@@ -11064,10 +12254,10 @@
         <f>C382-$C$13</f>
         <v>123.91188657407474</v>
       </c>
-      <c r="F382" s="32">
+      <c r="F382" s="17">
         <v>3.7</v>
       </c>
-      <c r="H382" s="32">
+      <c r="H382" s="17">
         <v>3.6</v>
       </c>
     </row>
@@ -11085,11 +12275,10 @@
         <f>C383-$C$2</f>
         <v>130.57091435184702</v>
       </c>
-      <c r="E383" s="29">
+      <c r="E383" s="9">
         <v>2.9</v>
       </c>
-      <c r="F383" s="29"/>
-      <c r="G383" s="29">
+      <c r="G383" s="9">
         <v>3.4</v>
       </c>
       <c r="I383" s="10">
@@ -11110,11 +12299,10 @@
         <f>C384-$C$2</f>
         <v>131.33483796296059</v>
       </c>
-      <c r="E384" s="29">
+      <c r="E384" s="9">
         <v>3.1</v>
       </c>
-      <c r="F384" s="29"/>
-      <c r="G384" s="29">
+      <c r="G384" s="9">
         <v>3.4</v>
       </c>
       <c r="I384" s="10">
@@ -11135,10 +12323,10 @@
         <f>C385-$C$13</f>
         <v>125.95215277778334</v>
       </c>
-      <c r="F385" s="33">
+      <c r="F385" s="18">
         <v>3.7</v>
       </c>
-      <c r="H385" s="33">
+      <c r="H385" s="18">
         <v>3.3</v>
       </c>
     </row>
@@ -11156,11 +12344,10 @@
         <f>C386-$C$2</f>
         <v>132.29730324073898</v>
       </c>
-      <c r="E386" s="29">
+      <c r="E386" s="9">
         <v>2.9</v>
       </c>
-      <c r="F386" s="29"/>
-      <c r="G386" s="29">
+      <c r="G386" s="9">
         <v>3</v>
       </c>
       <c r="I386" s="10">
@@ -11181,10 +12368,10 @@
         <f>C387-$C$13</f>
         <v>126.91543981481664</v>
       </c>
-      <c r="F387" s="32">
-        <v>4</v>
-      </c>
-      <c r="H387" s="32">
+      <c r="F387" s="17">
+        <v>4</v>
+      </c>
+      <c r="H387" s="17">
         <v>4.3</v>
       </c>
     </row>
@@ -11202,11 +12389,10 @@
         <f>C388-$C$2</f>
         <v>133.00008101851563</v>
       </c>
-      <c r="E388" s="29">
+      <c r="E388" s="9">
         <v>2.8</v>
       </c>
-      <c r="F388" s="29"/>
-      <c r="G388" s="29">
+      <c r="G388" s="9">
         <v>3.2</v>
       </c>
       <c r="I388" s="10">
@@ -11227,10 +12413,10 @@
         <f>C389-$C$13</f>
         <v>127.61744212963094</v>
       </c>
-      <c r="F389" s="33">
+      <c r="F389" s="18">
         <v>3.8</v>
       </c>
-      <c r="H389" s="33">
+      <c r="H389" s="18">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -11248,11 +12434,10 @@
         <f>C390-$C$2</f>
         <v>135.31260416666191</v>
       </c>
-      <c r="E390" s="29">
+      <c r="E390" s="9">
         <v>2.6</v>
       </c>
-      <c r="F390" s="29"/>
-      <c r="G390" s="29">
+      <c r="G390" s="9">
         <v>3</v>
       </c>
       <c r="I390" s="10">
@@ -11277,7 +12462,7 @@
         <v>3.8</v>
       </c>
       <c r="G391" s="12"/>
-      <c r="H391" s="32">
+      <c r="H391" s="17">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -11295,7 +12480,7 @@
         <f>C392-$C$2</f>
         <v>136.44037037036469</v>
       </c>
-      <c r="E392" s="29">
+      <c r="E392" s="9">
         <v>2.9</v>
       </c>
       <c r="F392" s="11"/>
@@ -11320,7 +12505,7 @@
         <f>C393-$C$2</f>
         <v>136.46120370370045</v>
       </c>
-      <c r="E393" s="29">
+      <c r="E393" s="9">
         <v>3.3</v>
       </c>
       <c r="F393" s="11"/>
@@ -11345,7 +12530,7 @@
         <f>C394-$C$2</f>
         <v>137.29732638888527</v>
       </c>
-      <c r="E394" s="29">
+      <c r="E394" s="9">
         <v>3</v>
       </c>
       <c r="F394" s="11"/>
@@ -11374,7 +12559,7 @@
         <v>3.9</v>
       </c>
       <c r="G395" s="12"/>
-      <c r="H395" s="32">
+      <c r="H395" s="17">
         <v>4</v>
       </c>
     </row>
@@ -11392,7 +12577,7 @@
         <f>C396-$C$2</f>
         <v>137.54387731481256</v>
       </c>
-      <c r="E396" s="29">
+      <c r="E396" s="9">
         <v>3.1</v>
       </c>
       <c r="F396" s="11"/>
@@ -11417,7 +12602,7 @@
         <f>C397-$C$2</f>
         <v>138.94870370370336</v>
       </c>
-      <c r="E397" s="29">
+      <c r="E397" s="9">
         <v>3</v>
       </c>
       <c r="F397" s="11"/>
@@ -11446,7 +12631,7 @@
         <v>3.9</v>
       </c>
       <c r="G398" s="12"/>
-      <c r="H398" s="32">
+      <c r="H398" s="17">
         <v>3.7</v>
       </c>
     </row>
@@ -11464,7 +12649,7 @@
         <f>C399-$C$2</f>
         <v>139.26537037036906</v>
       </c>
-      <c r="E399" s="29">
+      <c r="E399" s="9">
         <v>3.3</v>
       </c>
       <c r="F399" s="11"/>
@@ -11493,7 +12678,7 @@
         <v>3.6</v>
       </c>
       <c r="G400" s="12"/>
-      <c r="H400" s="32">
+      <c r="H400" s="17">
         <v>3.4</v>
       </c>
     </row>
@@ -11511,7 +12696,7 @@
         <f>C401-$C$2</f>
         <v>140.00635416666773</v>
       </c>
-      <c r="E401" s="29">
+      <c r="E401" s="9">
         <v>3</v>
       </c>
       <c r="F401" s="11"/>
@@ -11540,7 +12725,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="G402" s="12"/>
-      <c r="H402" s="32">
+      <c r="H402" s="17">
         <v>3.8</v>
       </c>
     </row>
@@ -11558,7 +12743,7 @@
         <f>C403-$C$2</f>
         <v>142.29594907406863</v>
       </c>
-      <c r="E403" s="29">
+      <c r="E403" s="9">
         <v>2.8</v>
       </c>
       <c r="F403" s="11"/>
@@ -11587,7 +12772,7 @@
         <v>3.9</v>
       </c>
       <c r="G404" s="12"/>
-      <c r="H404" s="32">
+      <c r="H404" s="17">
         <v>3.8</v>
       </c>
     </row>
@@ -11605,7 +12790,7 @@
         <f>C405-$C$2</f>
         <v>142.55636574074015</v>
       </c>
-      <c r="E405" s="29">
+      <c r="E405" s="9">
         <v>3.3</v>
       </c>
       <c r="F405" s="11"/>
@@ -11634,7 +12819,7 @@
         <v>3.9</v>
       </c>
       <c r="G406" s="12"/>
-      <c r="H406" s="32">
+      <c r="H406" s="17">
         <v>3.8</v>
       </c>
     </row>
@@ -11652,7 +12837,7 @@
         <f>C407-$C$2</f>
         <v>142.95775462962774</v>
       </c>
-      <c r="E407" s="29">
+      <c r="E407" s="9">
         <v>3.4</v>
       </c>
       <c r="F407" s="11"/>
@@ -11681,7 +12866,7 @@
         <v>4</v>
       </c>
       <c r="G408" s="12"/>
-      <c r="H408" s="33">
+      <c r="H408" s="18">
         <v>3.8</v>
       </c>
     </row>
@@ -11699,7 +12884,7 @@
         <f>C409-$C$2</f>
         <v>143.30706018517958</v>
       </c>
-      <c r="E409" s="29">
+      <c r="E409" s="9">
         <v>3.1</v>
       </c>
       <c r="F409" s="11"/>
@@ -11728,7 +12913,7 @@
         <v>4</v>
       </c>
       <c r="G410" s="12"/>
-      <c r="H410" s="32">
+      <c r="H410" s="17">
         <v>4</v>
       </c>
     </row>
@@ -11746,7 +12931,7 @@
         <f>C411-$C$2</f>
         <v>143.5723379629635</v>
       </c>
-      <c r="E411" s="29">
+      <c r="E411" s="9">
         <v>3.4</v>
       </c>
       <c r="F411" s="11"/>
@@ -11775,7 +12960,7 @@
         <v>3.6</v>
       </c>
       <c r="G412" s="12"/>
-      <c r="H412" s="32">
+      <c r="H412" s="17">
         <v>3.5</v>
       </c>
     </row>
@@ -11793,7 +12978,7 @@
         <f>C413-$C$2</f>
         <v>143.95149305555242</v>
       </c>
-      <c r="E413" s="29">
+      <c r="E413" s="9">
         <v>3.1</v>
       </c>
       <c r="F413" s="11"/>
@@ -11822,7 +13007,7 @@
         <v>4</v>
       </c>
       <c r="G414" s="12"/>
-      <c r="H414" s="32">
+      <c r="H414" s="17">
         <v>3.6</v>
       </c>
     </row>
@@ -11840,7 +13025,7 @@
         <f>C415-$C$2</f>
         <v>144.2910879629635</v>
       </c>
-      <c r="E415" s="29">
+      <c r="E415" s="9">
         <v>2.8</v>
       </c>
       <c r="F415" s="11"/>
@@ -11869,7 +13054,7 @@
         <v>3.7</v>
       </c>
       <c r="G416" s="12"/>
-      <c r="H416" s="32">
+      <c r="H416" s="17">
         <v>3.7</v>
       </c>
     </row>
@@ -11887,7 +13072,7 @@
         <f>C417-$C$2</f>
         <v>145.28429398148</v>
       </c>
-      <c r="E417" s="29">
+      <c r="E417" s="9">
         <v>2.7</v>
       </c>
       <c r="F417" s="11"/>
@@ -11916,7 +13101,7 @@
         <v>3.8</v>
       </c>
       <c r="G418" s="12"/>
-      <c r="H418" s="32">
+      <c r="H418" s="17">
         <v>3.5</v>
       </c>
     </row>
@@ -11934,7 +13119,7 @@
         <f>C419-$C$2</f>
         <v>148.49459490740264</v>
       </c>
-      <c r="E419" s="29">
+      <c r="E419" s="9">
         <v>2.6</v>
       </c>
       <c r="F419" s="11"/>
@@ -11963,7 +13148,7 @@
         <v>4</v>
       </c>
       <c r="G420" s="12"/>
-      <c r="H420" s="32">
+      <c r="H420" s="17">
         <v>4</v>
       </c>
     </row>
@@ -11981,7 +13166,7 @@
         <f>C421-$C$2</f>
         <v>149.33276620370452</v>
       </c>
-      <c r="E421" s="29">
+      <c r="E421" s="9">
         <v>2.6</v>
       </c>
       <c r="F421" s="11"/>
@@ -12010,7 +13195,7 @@
         <v>3.9</v>
       </c>
       <c r="G422" s="12"/>
-      <c r="H422" s="32">
+      <c r="H422" s="17">
         <v>3.8</v>
       </c>
     </row>
@@ -12028,7 +13213,7 @@
         <f>C423-$C$2</f>
         <v>149.56609953703446</v>
       </c>
-      <c r="E423" s="29">
+      <c r="E423" s="9">
         <v>3</v>
       </c>
       <c r="F423" s="11"/>
@@ -12074,11 +13259,11 @@
         <f>C425-$C$2</f>
         <v>149.979317129626</v>
       </c>
-      <c r="E425" s="29">
+      <c r="E425" s="9">
         <v>2.7</v>
       </c>
       <c r="F425" s="11"/>
-      <c r="G425" s="29">
+      <c r="G425" s="9">
         <v>3</v>
       </c>
       <c r="H425" s="12"/>
@@ -12121,11 +13306,11 @@
         <f>C427-$C$2</f>
         <v>150.29109953703301</v>
       </c>
-      <c r="E427" s="29">
+      <c r="E427" s="9">
         <v>3.1</v>
       </c>
       <c r="F427" s="11"/>
-      <c r="G427" s="29">
+      <c r="G427" s="9">
         <v>3.6</v>
       </c>
       <c r="H427" s="12"/>
@@ -12168,11 +13353,11 @@
         <f>C429-$C$2</f>
         <v>151.29109953703301</v>
       </c>
-      <c r="E429" s="29">
+      <c r="E429" s="9">
         <v>2.6</v>
       </c>
       <c r="F429" s="11"/>
-      <c r="G429" s="29">
+      <c r="G429" s="9">
         <v>3</v>
       </c>
       <c r="H429" s="12"/>
@@ -12215,11 +13400,11 @@
         <f>C431-$C$2</f>
         <v>152.31196759259183</v>
       </c>
-      <c r="E431" s="29">
+      <c r="E431" s="9">
         <v>2.8</v>
       </c>
       <c r="F431" s="11"/>
-      <c r="G431" s="29">
+      <c r="G431" s="9">
         <v>3</v>
       </c>
       <c r="H431" s="12"/>
@@ -12259,11 +13444,10 @@
         <f>C433-$C$2</f>
         <v>152.57444444444263</v>
       </c>
-      <c r="E433" s="29">
+      <c r="E433" s="9">
         <v>3.3</v>
       </c>
-      <c r="F433" s="29"/>
-      <c r="G433" s="29">
+      <c r="G433" s="9">
         <v>3.3</v>
       </c>
       <c r="I433" s="10">
@@ -12291,10 +13475,10 @@
         <f>C434-$C$13</f>
         <v>147.22304398148117</v>
       </c>
-      <c r="F434" s="32">
+      <c r="F434" s="17">
         <v>3.6</v>
       </c>
-      <c r="H434" s="32">
+      <c r="H434" s="17">
         <v>3.1</v>
       </c>
       <c r="J434" s="6">
@@ -12319,11 +13503,10 @@
         <f>C435-$C$2</f>
         <v>153.25986111110979</v>
       </c>
-      <c r="E435" s="29">
+      <c r="E435" s="9">
         <v>2.9</v>
       </c>
-      <c r="F435" s="29"/>
-      <c r="G435" s="29">
+      <c r="G435" s="9">
         <v>3.1</v>
       </c>
       <c r="I435" s="10">
@@ -12336,7 +13519,7 @@
         <v>25.865150451660099</v>
       </c>
       <c r="L435" s="10">
-        <f t="shared" ref="L435:L470" si="4">C435-J435</f>
+        <f t="shared" ref="L435:L470" si="5">C435-J435</f>
         <v>148.965702048612</v>
       </c>
     </row>
@@ -12351,10 +13534,10 @@
         <f>C436-$C$13</f>
         <v>147.8772222222251</v>
       </c>
-      <c r="F436" s="32">
+      <c r="F436" s="17">
         <v>3.6</v>
       </c>
-      <c r="H436" s="32">
+      <c r="H436" s="17">
         <v>3</v>
       </c>
       <c r="J436" s="6">
@@ -12364,7 +13547,7 @@
         <v>32.848819732666001</v>
       </c>
       <c r="L436" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>148.86432487268758</v>
       </c>
     </row>
@@ -12379,11 +13562,10 @@
         <f>C437-$C$2</f>
         <v>153.49458333333314</v>
       </c>
-      <c r="E437" s="29">
+      <c r="E437" s="9">
         <v>3.1</v>
       </c>
-      <c r="F437" s="29"/>
-      <c r="G437" s="29">
+      <c r="G437" s="9">
         <v>2.8</v>
       </c>
       <c r="I437" s="10">
@@ -12396,7 +13578,7 @@
         <v>37.237575531005803</v>
       </c>
       <c r="L437" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>148.64833910879679</v>
       </c>
     </row>
@@ -12411,10 +13593,10 @@
         <f>C438-$C$13</f>
         <v>148.10915509259212</v>
       </c>
-      <c r="F438" s="32">
+      <c r="F438" s="17">
         <v>3.5</v>
       </c>
-      <c r="H438" s="32">
+      <c r="H438" s="17">
         <v>3.1</v>
       </c>
       <c r="J438" s="6">
@@ -12424,7 +13606,7 @@
         <v>20.6896247863769</v>
       </c>
       <c r="L438" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>148.10945489582809</v>
       </c>
     </row>
@@ -12439,10 +13621,10 @@
         <f>C439-$C$13</f>
         <v>148.40012731481693</v>
       </c>
-      <c r="F439" s="32">
+      <c r="F439" s="17">
         <v>3.6</v>
       </c>
-      <c r="H439" s="32">
+      <c r="H439" s="17">
         <v>3.2</v>
       </c>
       <c r="J439" s="6">
@@ -12452,7 +13634,7 @@
         <v>26.033948898315401</v>
       </c>
       <c r="L439" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>147.55876002314471</v>
       </c>
     </row>
@@ -12484,7 +13666,7 @@
         <v>19.871381759643501</v>
       </c>
       <c r="L440" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>144.47404818287032</v>
       </c>
     </row>
@@ -12500,11 +13682,11 @@
         <v>148.64109953703883</v>
       </c>
       <c r="E441" s="11"/>
-      <c r="F441" s="30">
+      <c r="F441" s="29">
         <v>3.5</v>
       </c>
       <c r="G441" s="12"/>
-      <c r="H441" s="32">
+      <c r="H441" s="17">
         <v>3.1</v>
       </c>
       <c r="J441" s="6">
@@ -12514,7 +13696,7 @@
         <v>23.527725219726499</v>
       </c>
       <c r="L441" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>143.30389056712738</v>
       </c>
     </row>
@@ -12546,7 +13728,7 @@
         <v>22.646539688110298</v>
       </c>
       <c r="L442" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>145.00460619213118</v>
       </c>
     </row>
@@ -12562,11 +13744,11 @@
         <v>150.92305555555504</v>
       </c>
       <c r="E443" s="11"/>
-      <c r="F443" s="30">
+      <c r="F443" s="29">
         <v>3.4</v>
       </c>
       <c r="G443" s="12"/>
-      <c r="H443" s="32">
+      <c r="H443" s="17">
         <v>3.1</v>
       </c>
       <c r="J443" s="6">
@@ -12576,7 +13758,7 @@
         <v>34.656967163085902</v>
       </c>
       <c r="L443" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>144.97543770832999</v>
       </c>
     </row>
@@ -12608,7 +13790,7 @@
         <v>23.676496505737301</v>
       </c>
       <c r="L444" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>144.00182398148172</v>
       </c>
     </row>
@@ -12624,11 +13806,11 @@
         <v>151.586944444447</v>
       </c>
       <c r="E445" s="11"/>
-      <c r="F445" s="30">
+      <c r="F445" s="29">
         <v>3.5</v>
       </c>
       <c r="G445" s="12"/>
-      <c r="H445" s="32">
+      <c r="H445" s="17">
         <v>3.2</v>
       </c>
       <c r="J445" s="6">
@@ -12638,7 +13820,7 @@
         <v>31.129367828369102</v>
       </c>
       <c r="L445" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>143.92960042823688</v>
       </c>
     </row>
@@ -12670,7 +13852,7 @@
         <v>26.6433391571044</v>
       </c>
       <c r="L446" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>144.44974479167286</v>
       </c>
     </row>
@@ -12686,11 +13868,11 @@
         <v>152.61055555555504</v>
       </c>
       <c r="E447" s="11"/>
-      <c r="F447" s="31">
+      <c r="F447" s="30">
         <v>3.8</v>
       </c>
       <c r="G447" s="12"/>
-      <c r="H447" s="33">
+      <c r="H447" s="18">
         <v>3.6</v>
       </c>
       <c r="J447" s="6">
@@ -12700,7 +13882,7 @@
         <v>21.934154510498001</v>
       </c>
       <c r="L447" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>141.64765128472209</v>
       </c>
     </row>
@@ -12732,7 +13914,7 @@
         <v>24.3574104309082</v>
       </c>
       <c r="L448" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>140.88099907407013</v>
       </c>
     </row>
@@ -12748,11 +13930,11 @@
         <v>152.93070601852378</v>
       </c>
       <c r="E449" s="11"/>
-      <c r="F449" s="30">
+      <c r="F449" s="29">
         <v>3.5</v>
       </c>
       <c r="G449" s="12"/>
-      <c r="H449" s="32">
+      <c r="H449" s="17">
         <v>3.2</v>
       </c>
       <c r="J449" s="6">
@@ -12762,7 +13944,7 @@
         <v>27.161178588867099</v>
       </c>
       <c r="L449" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>140.05391974536906</v>
       </c>
     </row>
@@ -12794,7 +13976,7 @@
         <v>23.333177566528299</v>
       </c>
       <c r="L450" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>138.99140716435068</v>
       </c>
     </row>
@@ -12810,11 +13992,11 @@
         <v>153.08347222222801</v>
       </c>
       <c r="E451" s="11"/>
-      <c r="F451" s="31">
+      <c r="F451" s="30">
         <v>3.6</v>
       </c>
       <c r="G451" s="12"/>
-      <c r="H451" s="33">
+      <c r="H451" s="18">
         <v>3.4</v>
       </c>
       <c r="J451" s="6">
@@ -12824,7 +14006,7 @@
         <v>36.3363647460937</v>
       </c>
       <c r="L451" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>138.82404756944743</v>
       </c>
     </row>
@@ -12856,7 +14038,7 @@
         <v>25.089822769165</v>
       </c>
       <c r="L452" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>138.48523971064424</v>
       </c>
     </row>
@@ -12872,11 +14054,11 @@
         <v>153.25506944445078</v>
       </c>
       <c r="E453" s="11"/>
-      <c r="F453" s="30">
+      <c r="F453" s="29">
         <v>3.8</v>
       </c>
       <c r="G453" s="12"/>
-      <c r="H453" s="32">
+      <c r="H453" s="17">
         <v>3.4</v>
       </c>
       <c r="J453" s="6">
@@ -12886,7 +14068,7 @@
         <v>30.714525222778299</v>
       </c>
       <c r="L453" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>138.23453500000323</v>
       </c>
     </row>
@@ -12918,7 +14100,7 @@
         <v>26.437349319458001</v>
       </c>
       <c r="L454" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>137.99973527777183</v>
       </c>
     </row>
@@ -12934,11 +14116,11 @@
         <v>153.56890046296758</v>
       </c>
       <c r="E455" s="11"/>
-      <c r="F455" s="30">
+      <c r="F455" s="29">
         <v>3.6</v>
       </c>
       <c r="G455" s="12"/>
-      <c r="H455" s="32">
+      <c r="H455" s="17">
         <v>3.5</v>
       </c>
       <c r="J455" s="6">
@@ -12948,7 +14130,7 @@
         <v>20.9785842895507</v>
       </c>
       <c r="L455" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>135.83378381944931</v>
       </c>
     </row>
@@ -12980,7 +14162,7 @@
         <v>30.1366062164306</v>
       </c>
       <c r="L456" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>135.76230167823815</v>
       </c>
     </row>
@@ -12996,11 +14178,11 @@
         <v>153.94390046296758</v>
       </c>
       <c r="E457" s="11"/>
-      <c r="F457" s="30">
+      <c r="F457" s="29">
         <v>4</v>
       </c>
       <c r="G457" s="12"/>
-      <c r="H457" s="32">
+      <c r="H457" s="17">
         <v>3.3</v>
       </c>
       <c r="J457" s="6">
@@ -13010,7 +14192,7 @@
         <v>25.312980651855401</v>
       </c>
       <c r="L457" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>135.54905458333815</v>
       </c>
     </row>
@@ -13042,7 +14224,7 @@
         <v>25.072658538818299</v>
       </c>
       <c r="L458" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>135.62891200231388</v>
       </c>
     </row>
@@ -13058,11 +14240,11 @@
         <v>154.53556712963473</v>
       </c>
       <c r="E459" s="11"/>
-      <c r="F459" s="31">
+      <c r="F459" s="30">
         <v>3.8</v>
       </c>
       <c r="G459" s="12"/>
-      <c r="H459" s="33">
+      <c r="H459" s="18">
         <v>3.6</v>
       </c>
       <c r="J459" s="6">
@@ -13072,7 +14254,7 @@
         <v>35.684059143066399</v>
       </c>
       <c r="L459" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>135.55322046296351</v>
       </c>
     </row>
@@ -13104,7 +14286,7 @@
         <v>26.0968914031982</v>
       </c>
       <c r="L460" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>135.50045113426313</v>
       </c>
     </row>
@@ -13136,7 +14318,7 @@
         <v>28.208299636840799</v>
       </c>
       <c r="L461" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>135.22266774305172</v>
       </c>
     </row>
@@ -13152,11 +14334,11 @@
         <v>155.08140046296467</v>
       </c>
       <c r="E462" s="11"/>
-      <c r="F462" s="30">
+      <c r="F462" s="29">
         <v>3.7</v>
       </c>
       <c r="G462" s="12"/>
-      <c r="H462" s="32">
+      <c r="H462" s="17">
         <v>3.4</v>
       </c>
       <c r="J462" s="6">
@@ -13166,7 +14348,7 @@
         <v>24.443241119384702</v>
       </c>
       <c r="L462" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>134.69211593749787</v>
       </c>
     </row>
@@ -13198,7 +14380,7 @@
         <v>24.211500167846602</v>
       </c>
       <c r="L463" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>134.65044806712831</v>
       </c>
     </row>
@@ -13214,11 +14396,11 @@
         <v>155.58973379629606</v>
       </c>
       <c r="E464" s="11"/>
-      <c r="F464" s="30">
+      <c r="F464" s="29">
         <v>3.9</v>
       </c>
       <c r="G464" s="12"/>
-      <c r="H464" s="32">
+      <c r="H464" s="17">
         <v>3.4</v>
       </c>
       <c r="J464" s="6">
@@ -13228,7 +14410,7 @@
         <v>35.0374755859375</v>
       </c>
       <c r="L464" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>134.58725052083173</v>
       </c>
     </row>
@@ -13260,7 +14442,7 @@
         <v>30.6830539703369</v>
       </c>
       <c r="L465" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>136.35809255787171</v>
       </c>
     </row>
@@ -13276,7 +14458,7 @@
         <v>157.92590277778072</v>
       </c>
       <c r="E466" s="11"/>
-      <c r="F466" s="31">
+      <c r="F466" s="30">
         <v>3.6</v>
       </c>
       <c r="G466" s="12"/>
@@ -13290,7 +14472,7 @@
         <v>28.6860847473144</v>
       </c>
       <c r="L466" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>136.19911555555882</v>
       </c>
     </row>
@@ -13322,7 +14504,7 @@
         <v>25.258621215820298</v>
       </c>
       <c r="L467" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>136.26856642361236</v>
       </c>
     </row>
@@ -13338,7 +14520,7 @@
         <v>158.91195601852087</v>
       </c>
       <c r="E468" s="11"/>
-      <c r="F468" s="31">
+      <c r="F468" s="30">
         <v>3.4</v>
       </c>
       <c r="G468" s="12"/>
@@ -13352,7 +14534,7 @@
         <v>21.284709930419901</v>
       </c>
       <c r="L468" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>134.16502938657504</v>
       </c>
     </row>
@@ -13384,7 +14566,7 @@
         <v>34.725627899169901</v>
       </c>
       <c r="L469" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>133.99003844906838</v>
       </c>
     </row>
@@ -13416,7 +14598,7 @@
         <v>41.689273834228501</v>
       </c>
       <c r="L470" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>134.20253555555246</v>
       </c>
     </row>
@@ -13432,7 +14614,7 @@
         <v>159.9168865740794</v>
       </c>
       <c r="E471" s="11"/>
-      <c r="F471" s="30">
+      <c r="F471" s="29">
         <v>3.7</v>
       </c>
       <c r="G471" s="12"/>
@@ -13468,7 +14650,7 @@
         <v>24.305912017822202</v>
       </c>
       <c r="L472" s="10">
-        <f t="shared" ref="L472:L494" si="5">C472-J472</f>
+        <f t="shared" ref="L472:L494" si="6">C472-J472</f>
         <v>133.61504302083631</v>
       </c>
     </row>
@@ -13500,7 +14682,7 @@
         <v>25.756433486938398</v>
       </c>
       <c r="L473" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>133.98240952546621</v>
       </c>
     </row>
@@ -13516,7 +14698,7 @@
         <v>160.8383564814867</v>
       </c>
       <c r="E474" s="11"/>
-      <c r="F474" s="30">
+      <c r="F474" s="29">
         <v>3.7</v>
       </c>
       <c r="G474" s="12"/>
@@ -13530,7 +14712,7 @@
         <v>24.878110885620099</v>
       </c>
       <c r="L474" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>133.44490234953992</v>
       </c>
     </row>
@@ -13562,7 +14744,7 @@
         <v>25.590496063232401</v>
       </c>
       <c r="L475" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>133.25672385416692</v>
       </c>
     </row>
@@ -13594,7 +14776,7 @@
         <v>38.642322540283203</v>
       </c>
       <c r="L476" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>133.72130211805779</v>
       </c>
     </row>
@@ -13610,7 +14792,7 @@
         <v>161.9074652777781</v>
       </c>
       <c r="E477" s="11"/>
-      <c r="F477" s="30">
+      <c r="F477" s="29">
         <v>3.9</v>
       </c>
       <c r="G477" s="12"/>
@@ -13624,7 +14806,7 @@
         <v>31.246667861938398</v>
       </c>
       <c r="L477" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>133.63901236110542</v>
       </c>
     </row>
@@ -13656,7 +14838,7 @@
         <v>26.677671432495099</v>
       </c>
       <c r="L478" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>133.26644228009536</v>
       </c>
     </row>
@@ -13688,7 +14870,7 @@
         <v>24.592012405395501</v>
       </c>
       <c r="L479" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>135.31227967592713</v>
       </c>
     </row>
@@ -13704,7 +14886,7 @@
         <v>164.92797453703679</v>
       </c>
       <c r="E480" s="11"/>
-      <c r="F480" s="30">
+      <c r="F480" s="29">
         <v>4.0999999999999996</v>
       </c>
       <c r="G480" s="12"/>
@@ -13718,7 +14900,7 @@
         <v>20.640987396240199</v>
       </c>
       <c r="L480" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>133.18521064814558</v>
       </c>
     </row>
@@ -13750,7 +14932,7 @@
         <v>40.459049224853501</v>
       </c>
       <c r="L481" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>133.00116797453666</v>
       </c>
     </row>
@@ -13782,7 +14964,7 @@
         <v>27.5245246887207</v>
       </c>
       <c r="L482" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>133.31921531249827</v>
       </c>
     </row>
@@ -13798,7 +14980,7 @@
         <v>165.91475694444671</v>
       </c>
       <c r="E483" s="11"/>
-      <c r="F483" s="31">
+      <c r="F483" s="30">
         <v>3.6</v>
       </c>
       <c r="G483" s="12"/>
@@ -13812,7 +14994,7 @@
         <v>27.2126770019531</v>
       </c>
       <c r="L483" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>133.16505695601518</v>
       </c>
     </row>
@@ -13844,7 +15026,7 @@
         <v>25.59907913208</v>
       </c>
       <c r="L484" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>132.56715124999755</v>
       </c>
     </row>
@@ -13876,7 +15058,7 @@
         <v>35.277801513671797</v>
       </c>
       <c r="L485" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>133.01020149305259</v>
       </c>
     </row>
@@ -13892,7 +15074,7 @@
         <v>166.8745833333378</v>
       </c>
       <c r="E486" s="11"/>
-      <c r="F486" s="31">
+      <c r="F486" s="30">
         <v>3.8</v>
       </c>
       <c r="G486" s="12"/>
@@ -13906,7 +15088,7 @@
         <v>31.701564788818299</v>
       </c>
       <c r="L486" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>132.8491858796333</v>
       </c>
     </row>
@@ -13938,7 +15120,7 @@
         <v>29.0580139160156</v>
       </c>
       <c r="L487" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>132.57209498841985</v>
       </c>
     </row>
@@ -13970,7 +15152,7 @@
         <v>29.658821105956999</v>
       </c>
       <c r="L488" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>132.95256721064652</v>
       </c>
     </row>
@@ -13986,7 +15168,7 @@
         <v>167.87797453704115</v>
       </c>
       <c r="E489" s="11"/>
-      <c r="F489" s="30">
+      <c r="F489" s="29">
         <v>3.8</v>
       </c>
       <c r="G489" s="12"/>
@@ -14000,7 +15182,7 @@
         <v>22.961248397827099</v>
       </c>
       <c r="L489" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>132.11437655092595</v>
       </c>
     </row>
@@ -14032,7 +15214,7 @@
         <v>25.370201110839801</v>
       </c>
       <c r="L490" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>131.97061718750047</v>
       </c>
     </row>
@@ -14061,7 +15243,7 @@
         <v>20.034458160400298</v>
       </c>
       <c r="L491" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>131.71486989583354</v>
       </c>
     </row>
@@ -14074,7 +15256,7 @@
       </c>
       <c r="D492" s="7"/>
       <c r="E492" s="11"/>
-      <c r="F492" s="30">
+      <c r="F492" s="29">
         <v>3.7</v>
       </c>
       <c r="G492" s="20"/>
@@ -14086,7 +15268,7 @@
         <v>36.2162055969238</v>
       </c>
       <c r="L492" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>131.68918696759647</v>
       </c>
     </row>
@@ -14116,7 +15298,7 @@
         <v>24.969661712646399</v>
       </c>
       <c r="L493" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>133.03224104166293</v>
       </c>
     </row>
@@ -14132,7 +15314,7 @@
         <v>173.17570601851912</v>
       </c>
       <c r="E494" s="11"/>
-      <c r="F494" s="30">
+      <c r="F494" s="29">
         <v>3.8</v>
       </c>
       <c r="G494" s="20"/>
@@ -14144,7 +15326,7 @@
         <v>25.224290847778299</v>
       </c>
       <c r="L494" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>132.84127619212813</v>
       </c>
     </row>
@@ -14160,7 +15342,7 @@
         <v>173.58011574074044</v>
       </c>
       <c r="E495" s="11"/>
-      <c r="F495" s="30">
+      <c r="F495" s="29">
         <v>4.0999999999999996</v>
       </c>
       <c r="G495" s="20"/>
@@ -14188,7 +15370,7 @@
         <v>174.06598379629577</v>
       </c>
       <c r="E496" s="11"/>
-      <c r="F496" s="30">
+      <c r="F496" s="29">
         <v>4</v>
       </c>
       <c r="G496" s="20"/>
@@ -14200,7 +15382,7 @@
         <v>32.124992370605398</v>
       </c>
       <c r="L496" s="10">
-        <f t="shared" ref="L496:L559" si="6">C496-J496</f>
+        <f t="shared" ref="L496:L559" si="7">C496-J496</f>
         <v>133.40377415508556</v>
       </c>
     </row>
@@ -14230,7 +15412,7 @@
         <v>27.198371887206999</v>
       </c>
       <c r="L497" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>133.73154585647717</v>
       </c>
     </row>
@@ -14260,7 +15442,7 @@
         <v>27.0496006011962</v>
       </c>
       <c r="L498" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>133.65654696759884</v>
       </c>
     </row>
@@ -14276,7 +15458,7 @@
         <v>175.21666666666715</v>
       </c>
       <c r="E499" s="11"/>
-      <c r="F499" s="30">
+      <c r="F499" s="29">
         <v>3.7</v>
       </c>
       <c r="G499" s="20"/>
@@ -14288,7 +15470,7 @@
         <v>25.393087387084901</v>
       </c>
       <c r="L499" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>133.50029740740138</v>
       </c>
     </row>
@@ -14318,7 +15500,7 @@
         <v>25.032604217529201</v>
       </c>
       <c r="L500" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>132.89682684027503</v>
       </c>
     </row>
@@ -14334,7 +15516,7 @@
         <v>175.43888888889342</v>
       </c>
       <c r="E501" s="11"/>
-      <c r="F501" s="30">
+      <c r="F501" s="29">
         <v>4.0999999999999996</v>
       </c>
       <c r="G501" s="20"/>
@@ -14346,7 +15528,7 @@
         <v>26.194164276123001</v>
       </c>
       <c r="L501" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>132.71973915509443</v>
       </c>
     </row>
@@ -14376,7 +15558,7 @@
         <v>29.678848266601499</v>
       </c>
       <c r="L502" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>132.99613038194366</v>
       </c>
     </row>
@@ -14406,7 +15588,7 @@
         <v>33.976051330566399</v>
       </c>
       <c r="L503" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>130.84544193287002</v>
       </c>
     </row>
@@ -14436,7 +15618,7 @@
         <v>31.770229339599599</v>
       </c>
       <c r="L504" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>133.74546688657574</v>
       </c>
     </row>
@@ -14466,7 +15648,7 @@
         <v>27.284200668334901</v>
       </c>
       <c r="L505" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>134.59891887731646</v>
       </c>
     </row>
@@ -14482,7 +15664,7 @@
         <v>181.50278935185634</v>
       </c>
       <c r="E506" s="11"/>
-      <c r="F506" s="30">
+      <c r="F506" s="29">
         <v>3.8</v>
       </c>
       <c r="G506" s="20"/>
@@ -14494,7 +15676,7 @@
         <v>39.406204223632798</v>
       </c>
       <c r="L506" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>134.50447252314916</v>
       </c>
     </row>
@@ -14524,7 +15706,7 @@
         <v>40.905361175537102</v>
       </c>
       <c r="L507" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>133.76558418981585</v>
       </c>
     </row>
@@ -14554,7 +15736,7 @@
         <v>28.299852371215799</v>
       </c>
       <c r="L508" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>133.56982341434923</v>
       </c>
     </row>
@@ -14570,7 +15752,7 @@
         <v>182.13775462963531</v>
       </c>
       <c r="E509" s="11"/>
-      <c r="F509" s="30">
+      <c r="F509" s="29">
         <v>4.4000000000000004</v>
       </c>
       <c r="G509" s="20"/>
@@ -14582,7 +15764,7 @@
         <v>28.6975288391113</v>
       </c>
       <c r="L509" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>133.38596710648562</v>
       </c>
     </row>
@@ -14612,7 +15794,7 @@
         <v>39.806743621826101</v>
       </c>
       <c r="L510" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>134.4079422453724</v>
       </c>
     </row>
@@ -14628,7 +15810,7 @@
         <v>183.58476851852174</v>
       </c>
       <c r="E511" s="11"/>
-      <c r="F511" s="30">
+      <c r="F511" s="29">
         <v>4</v>
       </c>
       <c r="G511" s="20"/>
@@ -14640,7 +15822,7 @@
         <v>30.0793857574462</v>
       </c>
       <c r="L511" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>134.21561343750363</v>
       </c>
     </row>
@@ -14670,7 +15852,7 @@
         <v>27.739097595214801</v>
       </c>
       <c r="L512" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>133.9135012384213</v>
       </c>
     </row>
@@ -14686,7 +15868,7 @@
         <v>183.82641203703679</v>
       </c>
       <c r="E513" s="11"/>
-      <c r="F513" s="30">
+      <c r="F513" s="29">
         <v>4.0999999999999996</v>
       </c>
       <c r="G513" s="20"/>
@@ -14698,7 +15880,7 @@
         <v>37.709640502929602</v>
       </c>
       <c r="L513" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>133.82531702546112</v>
       </c>
     </row>
@@ -14710,7 +15892,7 @@
         <v>45878.707951388889</v>
       </c>
       <c r="D514" s="22">
-        <f>C514-$C$2</f>
+        <f t="shared" ref="D514:D519" si="8">C514-$C$2</f>
         <v>189.55141203703533</v>
       </c>
       <c r="E514" s="11">
@@ -14728,7 +15910,7 @@
         <v>27.4100837707519</v>
       </c>
       <c r="L514" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>133.57044008102093</v>
       </c>
     </row>
@@ -14740,7 +15922,7 @@
         <v>45881.695451388892</v>
       </c>
       <c r="D515" s="22">
-        <f>C515-$C$2</f>
+        <f t="shared" si="8"/>
         <v>192.53891203703824</v>
       </c>
       <c r="E515" s="11">
@@ -14758,7 +15940,7 @@
         <v>21.8855171203613</v>
       </c>
       <c r="L515" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>134.24891754629789</v>
       </c>
     </row>
@@ -14770,7 +15952,7 @@
         <v>45882.591284722221</v>
       </c>
       <c r="D516" s="22">
-        <f>C516-$C$2</f>
+        <f t="shared" si="8"/>
         <v>193.43474537036673</v>
       </c>
       <c r="E516" s="11">
@@ -14788,7 +15970,7 @@
         <v>24.2858867645263</v>
       </c>
       <c r="L516" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>134.48641390046396</v>
       </c>
     </row>
@@ -14800,7 +15982,7 @@
         <v>45883.609340277777</v>
       </c>
       <c r="D517" s="22">
-        <f>C517-$C$2</f>
+        <f t="shared" si="8"/>
         <v>194.45280092592293</v>
       </c>
       <c r="E517" s="11">
@@ -14818,7 +16000,7 @@
         <v>25.573329925537099</v>
       </c>
       <c r="L517" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>135.15864131944545</v>
       </c>
     </row>
@@ -14830,7 +16012,7 @@
         <v>45884.739201388889</v>
       </c>
       <c r="D518" s="22">
-        <f>C518-$C$2</f>
+        <f t="shared" si="8"/>
         <v>195.58266203703533</v>
       </c>
       <c r="E518" s="11">
@@ -14848,7 +16030,7 @@
         <v>32.382480621337798</v>
       </c>
       <c r="L518" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>136.01489333333302</v>
       </c>
     </row>
@@ -14860,7 +16042,7 @@
         <v>45884.991990740738</v>
       </c>
       <c r="D519" s="22">
-        <f>C519-$C$2</f>
+        <f t="shared" si="8"/>
         <v>195.83545138888439</v>
       </c>
       <c r="E519" s="11">
@@ -14878,7 +16060,7 @@
         <v>24.4489631652832</v>
       </c>
       <c r="L519" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>135.26767666666274</v>
       </c>
     </row>
@@ -14894,7 +16076,7 @@
         <v>190.44252314815094</v>
       </c>
       <c r="E520" s="11"/>
-      <c r="F520" s="30">
+      <c r="F520" s="29">
         <v>4.2</v>
       </c>
       <c r="G520" s="20"/>
@@ -14906,7 +16088,7 @@
         <v>37.083084106445298</v>
       </c>
       <c r="L520" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>135.18587934027892</v>
       </c>
     </row>
@@ -14936,7 +16118,7 @@
         <v>23.725131988525298</v>
       </c>
       <c r="L521" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>134.68295790509728</v>
       </c>
     </row>
@@ -14952,7 +16134,7 @@
         <v>190.85903935185343</v>
       </c>
       <c r="E522" s="11"/>
-      <c r="F522" s="31">
+      <c r="F522" s="30">
         <v>4.0999999999999996</v>
       </c>
       <c r="G522" s="25"/>
@@ -14964,7 +16146,7 @@
         <v>32.391063690185497</v>
       </c>
       <c r="L522" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>134.47114579861227</v>
       </c>
     </row>
@@ -14994,7 +16176,7 @@
         <v>30.511394500732401</v>
       </c>
       <c r="L523" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>134.33502635416517</v>
       </c>
     </row>
@@ -15024,7 +16206,7 @@
         <v>24.806585311889599</v>
       </c>
       <c r="L524" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>133.98712502315175</v>
       </c>
     </row>
@@ -15040,7 +16222,7 @@
         <v>191.5711111111159</v>
       </c>
       <c r="E525" s="11"/>
-      <c r="F525" s="30">
+      <c r="F525" s="29">
         <v>4.2</v>
       </c>
       <c r="G525" s="20"/>
@@ -15052,7 +16234,7 @@
         <v>23.533447265625</v>
       </c>
       <c r="L525" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>131.84432784722594</v>
       </c>
     </row>
@@ -15082,7 +16264,7 @@
         <v>25.490362167358398</v>
       </c>
       <c r="L526" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>133.35312362268451</v>
       </c>
     </row>
@@ -15098,7 +16280,7 @@
         <v>193.9076620370397</v>
       </c>
       <c r="E527" s="11"/>
-      <c r="F527" s="30">
+      <c r="F527" s="29">
         <v>4.3</v>
       </c>
       <c r="G527" s="20"/>
@@ -15110,7 +16292,7 @@
         <v>32.625663757324197</v>
       </c>
       <c r="L527" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>133.25587207175704</v>
       </c>
     </row>
@@ -15140,7 +16322,7 @@
         <v>30.743135452270501</v>
       </c>
       <c r="L528" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>133.01003809028043</v>
       </c>
     </row>
@@ -15156,7 +16338,7 @@
         <v>194.18752314815356</v>
       </c>
       <c r="E529" s="11"/>
-      <c r="F529" s="31">
+      <c r="F529" s="30">
         <v>4.3</v>
       </c>
       <c r="G529" s="25"/>
@@ -15168,7 +16350,7 @@
         <v>30.0450534820556</v>
       </c>
       <c r="L529" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>132.83712442129763</v>
       </c>
     </row>
@@ -15198,7 +16380,7 @@
         <v>29.982112884521399</v>
       </c>
       <c r="L530" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>132.70590793981683</v>
       </c>
     </row>
@@ -15214,7 +16396,7 @@
         <v>194.58891203704115</v>
       </c>
       <c r="E531" s="11"/>
-      <c r="F531" s="31">
+      <c r="F531" s="30">
         <v>4.0999999999999996</v>
       </c>
       <c r="G531" s="25"/>
@@ -15226,7 +16408,7 @@
         <v>32.960399627685497</v>
       </c>
       <c r="L531" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>132.58226836805989</v>
       </c>
     </row>
@@ -15256,7 +16438,7 @@
         <v>43.3228950500488</v>
       </c>
       <c r="L532" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>132.21629187499639</v>
       </c>
     </row>
@@ -15286,7 +16468,7 @@
         <v>33.5726509094238</v>
       </c>
       <c r="L533" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>132.14753496527555</v>
       </c>
     </row>
@@ -15302,7 +16484,7 @@
         <v>195.19314814815152</v>
       </c>
       <c r="E534" s="11"/>
-      <c r="F534" s="30">
+      <c r="F534" s="29">
         <v>4.3</v>
       </c>
       <c r="G534" s="20"/>
@@ -15314,7 +16496,7 @@
         <v>28.065250396728501</v>
       </c>
       <c r="L534" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>131.79552940971917</v>
       </c>
     </row>
@@ -15344,7 +16526,7 @@
         <v>30.674470901489201</v>
       </c>
       <c r="L535" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>131.68160747685033</v>
       </c>
     </row>
@@ -15360,7 +16542,7 @@
         <v>195.57923611111619</v>
       </c>
       <c r="E536" s="11"/>
-      <c r="F536" s="31">
+      <c r="F536" s="30">
         <v>4.0999999999999996</v>
       </c>
       <c r="G536" s="25"/>
@@ -15372,7 +16554,7 @@
         <v>27.1669006347656</v>
       </c>
       <c r="L536" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>131.19967531249858</v>
       </c>
     </row>
@@ -15402,7 +16584,7 @@
         <v>24.351688385009702</v>
       </c>
       <c r="L537" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>128.95101346064621</v>
       </c>
     </row>
@@ -15418,7 +16600,7 @@
         <v>195.84034722222714</v>
       </c>
       <c r="E538" s="11"/>
-      <c r="F538" s="30">
+      <c r="F538" s="29">
         <v>4</v>
       </c>
       <c r="G538" s="20"/>
@@ -15430,7 +16612,7 @@
         <v>27.244146347045898</v>
       </c>
       <c r="L538" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>128.48995151620329</v>
       </c>
     </row>
@@ -15460,7 +16642,7 @@
         <v>29.850505828857401</v>
       </c>
       <c r="L539" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>128.73226053240796</v>
       </c>
     </row>
@@ -15476,7 +16658,7 @@
         <v>196.5548842592616</v>
       </c>
       <c r="E540" s="11"/>
-      <c r="F540" s="30">
+      <c r="F540" s="29">
         <v>4.0999999999999996</v>
       </c>
       <c r="G540" s="20"/>
@@ -15488,7 +16670,7 @@
         <v>26.025365829467699</v>
       </c>
       <c r="L540" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>128.18989821759169</v>
       </c>
     </row>
@@ -15518,7 +16700,7 @@
         <v>26.6433391571044</v>
       </c>
       <c r="L541" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>128.02670864583342</v>
       </c>
     </row>
@@ -15534,7 +16716,7 @@
         <v>196.94076388889516</v>
       </c>
       <c r="E542" s="11"/>
-      <c r="F542" s="31">
+      <c r="F542" s="30">
         <v>4.2</v>
       </c>
       <c r="G542" s="25"/>
@@ -15546,7 +16728,7 @@
         <v>40.238750457763601</v>
       </c>
       <c r="L542" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>127.98688982638851</v>
       </c>
     </row>
@@ -15576,7 +16758,7 @@
         <v>26.943742752075099</v>
       </c>
       <c r="L543" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>127.00865192129277</v>
       </c>
     </row>
@@ -15592,7 +16774,7 @@
         <v>197.19238425925869</v>
       </c>
       <c r="E544" s="11"/>
-      <c r="F544" s="30">
+      <c r="F544" s="29">
         <v>3.9</v>
       </c>
       <c r="G544" s="20"/>
@@ -15604,7 +16786,7 @@
         <v>32.187934875488203</v>
       </c>
       <c r="L544" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>126.82462427082646</v>
       </c>
     </row>
@@ -15634,7 +16816,7 @@
         <v>30.210990905761701</v>
       </c>
       <c r="L545" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>126.64337959490513</v>
       </c>
     </row>
@@ -15650,7 +16832,7 @@
         <v>197.57434027778072</v>
       </c>
       <c r="E546" s="11"/>
-      <c r="F546" s="30">
+      <c r="F546" s="29">
         <v>4.0999999999999996</v>
       </c>
       <c r="G546" s="20"/>
@@ -15662,7 +16844,7 @@
         <v>36.058849334716797</v>
       </c>
       <c r="L546" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>126.55518800926075</v>
       </c>
     </row>
@@ -15692,7 +16874,7 @@
         <v>31.421188354492099</v>
       </c>
       <c r="L547" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>126.34407575232035</v>
       </c>
     </row>
@@ -15708,7 +16890,7 @@
         <v>197.91836805555795</v>
       </c>
       <c r="E548" s="11"/>
-      <c r="F548" s="30">
+      <c r="F548" s="29">
         <v>4.0999999999999996</v>
       </c>
       <c r="G548" s="20"/>
@@ -15720,7 +16902,7 @@
         <v>26.674810409545898</v>
       </c>
       <c r="L548" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>124.18810651620151</v>
       </c>
     </row>
@@ -15750,7 +16932,7 @@
         <v>30.465618133544901</v>
       </c>
       <c r="L549" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>124.01352278935519</v>
       </c>
     </row>
@@ -15766,7 +16948,7 @@
         <v>198.64262731481722</v>
       </c>
       <c r="E550" s="11"/>
-      <c r="F550" s="30">
+      <c r="F550" s="29">
         <v>4.3</v>
       </c>
       <c r="G550" s="20"/>
@@ -15778,7 +16960,7 @@
         <v>37.669586181640597</v>
       </c>
       <c r="L550" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>123.90888999999879</v>
       </c>
     </row>
@@ -15808,7 +16990,7 @@
         <v>40.882472991943303</v>
       </c>
       <c r="L551" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>125.74546114583063</v>
       </c>
     </row>
@@ -15838,7 +17020,7 @@
         <v>31.1122016906738</v>
       </c>
       <c r="L552" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>125.57462118055264</v>
       </c>
     </row>
@@ -15854,7 +17036,7 @@
         <v>201.19447916666832</v>
       </c>
       <c r="E553" s="11"/>
-      <c r="F553" s="30">
+      <c r="F553" s="29">
         <v>3.4</v>
       </c>
       <c r="G553" s="20"/>
@@ -15866,7 +17048,7 @@
         <v>35.380794525146399</v>
       </c>
       <c r="L553" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>125.45311056712671</v>
       </c>
     </row>
@@ -15896,7 +17078,7 @@
         <v>39.065746307372997</v>
       </c>
       <c r="L554" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>125.51977670138876</v>
       </c>
     </row>
@@ -15912,7 +17094,7 @@
         <v>201.71344907407911</v>
       </c>
       <c r="E555" s="11"/>
-      <c r="F555" s="31">
+      <c r="F555" s="30">
         <v>3.9</v>
       </c>
       <c r="G555" s="25"/>
@@ -15924,7 +17106,7 @@
         <v>43.2857055664062</v>
       </c>
       <c r="L555" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>125.19221768518764</v>
       </c>
     </row>
@@ -15954,7 +17136,7 @@
         <v>40.662178039550703</v>
       </c>
       <c r="L556" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>125.01074371527648</v>
       </c>
     </row>
@@ -15970,7 +17152,7 @@
         <v>201.95295138889196</v>
       </c>
       <c r="E557" s="11"/>
-      <c r="F557" s="30">
+      <c r="F557" s="29">
         <v>4.2</v>
       </c>
       <c r="G557" s="20"/>
@@ -15982,7 +17164,7 @@
         <v>25.444585800170898</v>
       </c>
       <c r="L557" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>124.24976952546422</v>
       </c>
     </row>
@@ -16012,7 +17194,7 @@
         <v>32.545555114746001</v>
       </c>
       <c r="L558" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>124.40170564814616</v>
       </c>
     </row>
@@ -16028,7 +17210,7 @@
         <v>202.56138888889109</v>
       </c>
       <c r="E559" s="11"/>
-      <c r="F559" s="30">
+      <c r="F559" s="29">
         <v>4.0999999999999996</v>
       </c>
       <c r="G559" s="20"/>
@@ -16040,7 +17222,7 @@
         <v>41.952484130859297</v>
       </c>
       <c r="L559" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>124.048492638889</v>
       </c>
     </row>
@@ -16070,7 +17252,7 @@
         <v>26.251384735107401</v>
       </c>
       <c r="L560" s="10">
-        <f t="shared" ref="L560:L586" si="7">C560-J560</f>
+        <f t="shared" ref="L560:L586" si="9">C560-J560</f>
         <v>113.94061265046184</v>
       </c>
     </row>
@@ -16100,7 +17282,7 @@
         <v>28.428596496581999</v>
       </c>
       <c r="L561" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>114.00449922453845</v>
       </c>
     </row>
@@ -16116,7 +17298,7 @@
         <v>203.58646990740817</v>
       </c>
       <c r="E562" s="11"/>
-      <c r="F562" s="30">
+      <c r="F562" s="29">
         <v>4</v>
       </c>
       <c r="G562" s="20"/>
@@ -16128,7 +17310,7 @@
         <v>29.564407348632798</v>
       </c>
       <c r="L562" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>113.77565148148278</v>
       </c>
     </row>
@@ -16158,7 +17340,7 @@
         <v>29.029403686523398</v>
       </c>
       <c r="L563" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>113.3364270949096</v>
       </c>
     </row>
@@ -16174,7 +17356,7 @@
         <v>203.94951388888876</v>
       </c>
       <c r="E564" s="11"/>
-      <c r="F564" s="30">
+      <c r="F564" s="29">
         <v>4.3</v>
       </c>
       <c r="G564" s="20"/>
@@ -16186,7 +17368,7 @@
         <v>32.539836883544901</v>
       </c>
       <c r="L564" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>113.18870271990454</v>
       </c>
     </row>
@@ -16216,7 +17398,7 @@
         <v>38.027210235595703</v>
       </c>
       <c r="L565" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>112.97116414352058</v>
       </c>
     </row>
@@ -16232,7 +17414,7 @@
         <v>204.15750000000116</v>
       </c>
       <c r="E566" s="11"/>
-      <c r="F566" s="30">
+      <c r="F566" s="29">
         <v>4.2</v>
       </c>
       <c r="G566" s="20"/>
@@ -16244,7 +17426,7 @@
         <v>32.894596099853501</v>
       </c>
       <c r="L566" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>112.76057831018261</v>
       </c>
     </row>
@@ -16274,7 +17456,7 @@
         <v>30.786048889160099</v>
       </c>
       <c r="L567" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>112.49963989583193</v>
       </c>
     </row>
@@ -16290,7 +17472,7 @@
         <v>204.45982638889109</v>
       </c>
       <c r="E568" s="11"/>
-      <c r="F568" s="30">
+      <c r="F568" s="29">
         <v>4.3</v>
       </c>
       <c r="G568" s="20"/>
@@ -16302,7 +17484,7 @@
         <v>40.542018890380803</v>
       </c>
       <c r="L568" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>112.4399884143495</v>
       </c>
     </row>
@@ -16332,7 +17514,7 @@
         <v>30.1137180328369</v>
       </c>
       <c r="L569" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>112.29686434027826</v>
       </c>
     </row>
@@ -16348,7 +17530,7 @@
         <v>204.90364583333576</v>
       </c>
       <c r="E570" s="11"/>
-      <c r="F570" s="30">
+      <c r="F570" s="29">
         <v>4.4000000000000004</v>
       </c>
       <c r="G570" s="20"/>
@@ -16360,7 +17542,7 @@
         <v>28.980766296386701</v>
       </c>
       <c r="L570" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>110.83796347222233</v>
       </c>
     </row>
@@ -16390,7 +17572,7 @@
         <v>28.2226047515869</v>
       </c>
       <c r="L571" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>110.68227530092554</v>
       </c>
     </row>
@@ -16406,7 +17588,7 @@
         <v>205.63684027778072</v>
       </c>
       <c r="E572" s="11"/>
-      <c r="F572" s="30">
+      <c r="F572" s="29">
         <v>4.3</v>
       </c>
       <c r="G572" s="20"/>
@@ -16418,7 +17600,7 @@
         <v>38.359085083007798</v>
       </c>
       <c r="L572" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>110.6392150231477</v>
       </c>
     </row>
@@ -16448,7 +17630,7 @@
         <v>30.7746047973632</v>
       </c>
       <c r="L573" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>112.36561662037275</v>
       </c>
     </row>
@@ -16460,11 +17642,11 @@
         <v>45902.668541666666</v>
       </c>
       <c r="D574" s="22">
-        <f>C574-$C$13</f>
+        <f t="shared" ref="D574:D586" si="10">C574-$C$13</f>
         <v>207.93629629629868</v>
       </c>
       <c r="E574" s="11"/>
-      <c r="F574" s="31">
+      <c r="F574" s="30">
         <v>4.5999999999999996</v>
       </c>
       <c r="G574" s="25"/>
@@ -16476,7 +17658,7 @@
         <v>29.321224212646399</v>
       </c>
       <c r="L574" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>112.18103561342286</v>
       </c>
     </row>
@@ -16488,11 +17670,11 @@
         <v>45902.900023148148</v>
       </c>
       <c r="D575" s="22">
-        <f>C575-$C$13</f>
+        <f t="shared" si="10"/>
         <v>208.16777777778043</v>
       </c>
       <c r="E575" s="11"/>
-      <c r="F575" s="30">
+      <c r="F575" s="29">
         <v>4</v>
       </c>
       <c r="G575" s="20"/>
@@ -16504,7 +17686,7 @@
         <v>40.745147705078097</v>
       </c>
       <c r="L575" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>112.15904410879739</v>
       </c>
     </row>
@@ -16516,11 +17698,11 @@
         <v>45903.328831018516</v>
       </c>
       <c r="D576" s="22">
-        <f>C576-$C$13</f>
+        <f t="shared" si="10"/>
         <v>208.5965856481489</v>
       </c>
       <c r="E576" s="11"/>
-      <c r="F576" s="31">
+      <c r="F576" s="30">
         <v>4.3</v>
       </c>
       <c r="G576" s="25"/>
@@ -16532,7 +17714,7 @@
         <v>33.083423614501903</v>
       </c>
       <c r="L576" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>112.24548723379121</v>
       </c>
     </row>
@@ -16544,11 +17726,11 @@
         <v>45903.632361111115</v>
       </c>
       <c r="D577" s="22">
-        <f>C577-$C$13</f>
+        <f t="shared" si="10"/>
         <v>208.90011574074742</v>
       </c>
       <c r="E577" s="11"/>
-      <c r="F577" s="30">
+      <c r="F577" s="29">
         <v>4.0999999999999996</v>
       </c>
       <c r="G577" s="20"/>
@@ -16560,7 +17742,7 @@
         <v>26.357240676879801</v>
       </c>
       <c r="L577" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>112.17332784722385</v>
       </c>
     </row>
@@ -16572,15 +17754,15 @@
         <v>45904.596863425926</v>
       </c>
       <c r="D578" s="22">
-        <f>C578-$C$13</f>
+        <f t="shared" si="10"/>
         <v>209.86461805555882</v>
       </c>
       <c r="E578" s="11"/>
-      <c r="F578" s="30">
+      <c r="F578" s="29">
         <v>4</v>
       </c>
       <c r="G578" s="12"/>
-      <c r="H578" s="32">
+      <c r="H578" s="17">
         <v>4.5</v>
       </c>
       <c r="J578" s="6">
@@ -16590,7 +17772,7 @@
         <v>36.596714019775298</v>
       </c>
       <c r="L578" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>112.85727214120561</v>
       </c>
     </row>
@@ -16602,15 +17784,15 @@
         <v>45904.963541666664</v>
       </c>
       <c r="D579" s="22">
-        <f>C579-$C$13</f>
+        <f t="shared" si="10"/>
         <v>210.23129629629693</v>
       </c>
       <c r="E579" s="11"/>
-      <c r="F579" s="31">
+      <c r="F579" s="30">
         <v>4.0999999999999996</v>
       </c>
       <c r="G579" s="12"/>
-      <c r="H579" s="33">
+      <c r="H579" s="18">
         <v>4.5999999999999996</v>
       </c>
       <c r="J579" s="6">
@@ -16620,7 +17802,7 @@
         <v>31.5070190429687</v>
       </c>
       <c r="L579" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>112.84270812499744</v>
       </c>
     </row>
@@ -16632,15 +17814,15 @@
         <v>45905.660937499997</v>
       </c>
       <c r="D580" s="22">
-        <f>C580-$C$13</f>
+        <f t="shared" si="10"/>
         <v>210.92869212962978</v>
       </c>
       <c r="E580" s="11"/>
-      <c r="F580" s="31">
+      <c r="F580" s="30">
         <v>4.0999999999999996</v>
       </c>
       <c r="G580" s="12"/>
-      <c r="H580" s="33">
+      <c r="H580" s="18">
         <v>4.5</v>
       </c>
       <c r="J580" s="6">
@@ -16650,7 +17832,7 @@
         <v>31.990526199340799</v>
       </c>
       <c r="L580" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>113.20606751157175</v>
       </c>
     </row>
@@ -16662,15 +17844,15 @@
         <v>45909.634421296294</v>
       </c>
       <c r="D581" s="22">
-        <f>C581-$C$13</f>
+        <f t="shared" si="10"/>
         <v>214.90217592592671</v>
       </c>
       <c r="E581" s="11"/>
-      <c r="F581" s="30">
+      <c r="F581" s="29">
         <v>4.5999999999999996</v>
       </c>
       <c r="G581" s="12"/>
-      <c r="H581" s="32">
+      <c r="H581" s="17">
         <v>4.9000000000000004</v>
       </c>
       <c r="J581" s="6">
@@ -16680,7 +17862,7 @@
         <v>42.3673286437988</v>
       </c>
       <c r="L581" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>116.94483718749689</v>
       </c>
     </row>
@@ -16692,15 +17874,15 @@
         <v>45909.872569444444</v>
       </c>
       <c r="D582" s="22">
-        <f>C582-$C$13</f>
+        <f t="shared" si="10"/>
         <v>215.14032407407649</v>
       </c>
       <c r="E582" s="11"/>
-      <c r="F582" s="30">
+      <c r="F582" s="29">
         <v>3.4</v>
       </c>
       <c r="G582" s="12"/>
-      <c r="H582" s="32">
+      <c r="H582" s="17">
         <v>4</v>
       </c>
       <c r="J582" s="6">
@@ -16710,7 +17892,7 @@
         <v>40.705093383788999</v>
       </c>
       <c r="L582" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>116.65312060184806</v>
       </c>
     </row>
@@ -16722,15 +17904,15 @@
         <v>45911.231840277775</v>
       </c>
       <c r="D583" s="22">
-        <f>C583-$C$13</f>
+        <f t="shared" si="10"/>
         <v>216.4995949074073</v>
       </c>
       <c r="E583" s="11"/>
-      <c r="F583" s="30">
+      <c r="F583" s="29">
         <v>4.3</v>
       </c>
       <c r="G583" s="12"/>
-      <c r="H583" s="32">
+      <c r="H583" s="17">
         <v>4.9000000000000004</v>
       </c>
       <c r="J583" s="6">
@@ -16740,7 +17922,7 @@
         <v>42.172779083251903</v>
       </c>
       <c r="L583" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>117.76517317129037</v>
       </c>
     </row>
@@ -16752,15 +17934,15 @@
         <v>45911.569861111115</v>
       </c>
       <c r="D584" s="22">
-        <f>C584-$C$13</f>
+        <f t="shared" si="10"/>
         <v>216.83761574074742</v>
       </c>
       <c r="E584" s="11"/>
-      <c r="F584" s="30">
+      <c r="F584" s="29">
         <v>3.9</v>
       </c>
       <c r="G584" s="12"/>
-      <c r="H584" s="32">
+      <c r="H584" s="17">
         <v>4.4000000000000004</v>
       </c>
       <c r="J584" s="6">
@@ -16770,7 +17952,7 @@
         <v>33.833000183105398</v>
       </c>
       <c r="L584" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>117.98651967592741</v>
       </c>
     </row>
@@ -16782,15 +17964,15 @@
         <v>45911.910868055558</v>
       </c>
       <c r="D585" s="22">
-        <f>C585-$C$13</f>
+        <f t="shared" si="10"/>
         <v>217.17862268519093</v>
       </c>
       <c r="E585" s="11"/>
-      <c r="F585" s="30">
+      <c r="F585" s="29">
         <v>4</v>
       </c>
       <c r="G585" s="12"/>
-      <c r="H585" s="32">
+      <c r="H585" s="17">
         <v>4.7</v>
       </c>
       <c r="J585" s="6">
@@ -16800,7 +17982,7 @@
         <v>29.1495647430419</v>
       </c>
       <c r="L585" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>117.74488656250469</v>
       </c>
     </row>
@@ -16812,15 +17994,15 @@
         <v>45912.281840277778</v>
       </c>
       <c r="D586" s="22">
-        <f>C586-$C$13</f>
+        <f t="shared" si="10"/>
         <v>217.54959490741021</v>
       </c>
       <c r="E586" s="11"/>
-      <c r="F586" s="30">
+      <c r="F586" s="29">
         <v>4.2</v>
       </c>
       <c r="G586" s="12"/>
-      <c r="H586" s="32">
+      <c r="H586" s="17">
         <v>4.9000000000000004</v>
       </c>
       <c r="J586" s="6">
@@ -16830,7 +18012,7 @@
         <v>31.778812408447202</v>
       </c>
       <c r="L586" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>117.65128217592428</v>
       </c>
     </row>
